--- a/Events/checklist/User_story.xlsx
+++ b/Events/checklist/User_story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\compm\PycharmProjects\Analytics Events\comparison\checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE364381-DD35-421A-973A-EE55BE8D9F82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C645D1-5D4D-4046-975D-5D84772F90F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="535">
   <si>
     <t>ABTestingResolveCompleted</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>OnboardingStepPassed</t>
+  </si>
+  <si>
+    <t>PetRescued</t>
   </si>
   <si>
     <t>PetSpeedup</t>
@@ -1863,6 +1866,9 @@
       <t xml:space="preserve">
 в Mystery оффере</t>
     </r>
+  </si>
+  <si>
+    <t>130 ALT</t>
   </si>
   <si>
     <t>Нажать назад или же вышло само, 
@@ -2045,11 +2051,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3751,11 +3757,9 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB1091"/>
+  <dimension ref="A1:AB1095"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="B482" sqref="B482"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3769,19 +3773,19 @@
   <sheetData>
     <row r="1" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3812,24 +3816,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="F2" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -3859,11 +3863,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -3887,17 +3891,17 @@
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -3921,17 +3925,17 @@
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -3958,14 +3962,14 @@
         <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -3993,11 +3997,11 @@
       <c r="E7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -4023,11 +4027,11 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -4052,20 +4056,20 @@
         <v>2</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -4091,13 +4095,13 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -4123,13 +4127,13 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -4154,21 +4158,21 @@
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -4196,19 +4200,19 @@
         <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="F13" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -4261,13 +4265,13 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="F15" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -4292,7 +4296,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -4361,13 +4365,13 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -4392,24 +4396,24 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -4436,16 +4440,16 @@
         <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -4530,13 +4534,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -4628,13 +4632,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -4668,7 +4672,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -4702,7 +4706,7 @@
         <v>41</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -4794,13 +4798,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -4834,7 +4838,7 @@
         <v>40</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -4868,7 +4872,7 @@
         <v>41</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -4960,13 +4964,13 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -4997,10 +5001,10 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -5031,10 +5035,10 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -5065,10 +5069,10 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -5102,7 +5106,7 @@
         <v>46</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -5133,10 +5137,10 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -5167,10 +5171,10 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -5204,7 +5208,7 @@
         <v>34</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -5296,7 +5300,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>5</v>
@@ -5394,13 +5398,13 @@
         <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -5434,7 +5438,7 @@
         <v>46</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -5468,7 +5472,7 @@
         <v>37</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -5502,7 +5506,7 @@
         <v>35</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -5536,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>36</v>
@@ -5572,7 +5576,7 @@
         <v>33</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>2</v>
@@ -5608,7 +5612,7 @@
         <v>31</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>32</v>
@@ -5644,7 +5648,7 @@
         <v>39</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>38</v>
@@ -5677,13 +5681,13 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -5713,10 +5717,10 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -5747,10 +5751,10 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -5781,10 +5785,10 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -5818,7 +5822,7 @@
         <v>50</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -5910,13 +5914,13 @@
         <v>12</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -5947,10 +5951,10 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -5984,7 +5988,7 @@
         <v>16</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -6076,7 +6080,7 @@
         <v>13</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>42</v>
@@ -6113,10 +6117,10 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -6150,7 +6154,7 @@
         <v>14</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -6242,13 +6246,13 @@
         <v>14</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -6340,13 +6344,13 @@
         <v>15</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -6377,10 +6381,10 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -6472,13 +6476,13 @@
         <v>16</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -6509,10 +6513,10 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -6543,10 +6547,10 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -6577,10 +6581,10 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -6672,10 +6676,10 @@
         <v>17</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -6768,13 +6772,13 @@
         <v>18</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -6866,13 +6870,13 @@
         <v>19</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -6906,7 +6910,7 @@
         <v>44</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -6998,13 +7002,13 @@
         <v>20</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -7035,10 +7039,10 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -7130,13 +7134,13 @@
         <v>21</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -7167,10 +7171,10 @@
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -7232,13 +7236,13 @@
         <v>22</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -7272,7 +7276,7 @@
         <v>43</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -7334,13 +7338,13 @@
         <v>23</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -7432,13 +7436,13 @@
         <v>24</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -7469,10 +7473,10 @@
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -7564,13 +7568,13 @@
         <v>25</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -7662,13 +7666,13 @@
         <v>26</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -7760,13 +7764,13 @@
         <v>27</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -7800,7 +7804,7 @@
         <v>14</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -7892,13 +7896,13 @@
         <v>28</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -7932,7 +7936,7 @@
         <v>19</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -8024,13 +8028,13 @@
         <v>31</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -8122,13 +8126,13 @@
         <v>32</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -8220,7 +8224,7 @@
         <v>33</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -8314,13 +8318,13 @@
         <v>34</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -8412,13 +8416,13 @@
         <v>35</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -8510,10 +8514,10 @@
         <v>36</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -8606,13 +8610,13 @@
         <v>37</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -8704,13 +8708,13 @@
         <v>38</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -8741,10 +8745,10 @@
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -8836,13 +8840,13 @@
         <v>39</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -8934,13 +8938,13 @@
         <v>40</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -9032,13 +9036,13 @@
         <v>41</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -9069,10 +9073,10 @@
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -9103,10 +9107,10 @@
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -9198,13 +9202,13 @@
         <v>42</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -9235,10 +9239,10 @@
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -9272,7 +9276,7 @@
         <v>16</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -9303,10 +9307,10 @@
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -9340,7 +9344,7 @@
         <v>14</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -9432,13 +9436,13 @@
         <v>43</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -9469,10 +9473,10 @@
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -9506,7 +9510,7 @@
         <v>16</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -9537,10 +9541,10 @@
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -9662,13 +9666,13 @@
         <v>44</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -9699,10 +9703,10 @@
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -9736,7 +9740,7 @@
         <v>16</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -9767,10 +9771,10 @@
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -9804,7 +9808,7 @@
         <v>14</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -9896,13 +9900,13 @@
         <v>45</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -9933,10 +9937,10 @@
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -9970,7 +9974,7 @@
         <v>16</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -10001,10 +10005,10 @@
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -10038,7 +10042,7 @@
         <v>14</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -10072,7 +10076,7 @@
         <v>50</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
@@ -10106,7 +10110,7 @@
         <v>50</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -10168,13 +10172,13 @@
         <v>46</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -10205,10 +10209,10 @@
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -10242,7 +10246,7 @@
         <v>50</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -10334,13 +10338,13 @@
         <v>47</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -10374,7 +10378,7 @@
         <v>14</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -10408,7 +10412,7 @@
         <v>50</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -10500,13 +10504,13 @@
         <v>48</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
@@ -10537,10 +10541,10 @@
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
@@ -10632,13 +10636,13 @@
         <v>49</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
@@ -10730,13 +10734,13 @@
         <v>50</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
@@ -10828,10 +10832,10 @@
         <v>51</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -10924,13 +10928,13 @@
         <v>52</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
@@ -10961,10 +10965,10 @@
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -10995,10 +10999,10 @@
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
@@ -11029,10 +11033,10 @@
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
@@ -11063,10 +11067,10 @@
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
@@ -11097,10 +11101,10 @@
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
@@ -11192,13 +11196,13 @@
         <v>53</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C224" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
@@ -11290,10 +11294,10 @@
         <v>54</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -11386,13 +11390,13 @@
         <v>55</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
@@ -11423,10 +11427,10 @@
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
@@ -11518,13 +11522,13 @@
         <v>56</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
@@ -11616,13 +11620,13 @@
         <v>57</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
@@ -11714,13 +11718,13 @@
         <v>58</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
@@ -11812,13 +11816,13 @@
         <v>59</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
@@ -11910,13 +11914,13 @@
         <v>60</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -11947,10 +11951,10 @@
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
@@ -12042,13 +12046,13 @@
         <v>61</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
@@ -12140,13 +12144,13 @@
         <v>62</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
@@ -12180,7 +12184,7 @@
         <v>24</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
@@ -12272,13 +12276,13 @@
         <v>63</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
@@ -12312,7 +12316,7 @@
         <v>24</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
@@ -12404,13 +12408,13 @@
         <v>64</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
@@ -12444,7 +12448,7 @@
         <v>24</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
@@ -12475,10 +12479,10 @@
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
@@ -12570,10 +12574,10 @@
         <v>65</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -12666,10 +12670,10 @@
         <v>66</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -12762,13 +12766,13 @@
         <v>67</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
@@ -12799,10 +12803,10 @@
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
@@ -12894,13 +12898,13 @@
         <v>68</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
@@ -12992,13 +12996,13 @@
         <v>69</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
@@ -13032,7 +13036,7 @@
         <v>21</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
@@ -13124,13 +13128,13 @@
         <v>70</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
@@ -13161,10 +13165,10 @@
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
@@ -13195,10 +13199,10 @@
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
@@ -13290,13 +13294,13 @@
         <v>71</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
@@ -13327,10 +13331,10 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
@@ -13361,10 +13365,10 @@
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
@@ -13456,13 +13460,13 @@
         <v>72</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
@@ -13554,13 +13558,13 @@
         <v>73</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
@@ -13591,10 +13595,10 @@
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
@@ -13686,13 +13690,13 @@
         <v>74</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
@@ -13726,7 +13730,7 @@
         <v>21</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
@@ -13760,7 +13764,7 @@
         <v>20</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
@@ -13791,10 +13795,10 @@
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
@@ -13825,10 +13829,10 @@
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
@@ -13920,10 +13924,10 @@
         <v>75</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -14016,13 +14020,13 @@
         <v>76</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -14056,7 +14060,7 @@
         <v>14</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
@@ -14148,13 +14152,13 @@
         <v>77</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
@@ -14188,7 +14192,7 @@
         <v>14</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
@@ -14219,10 +14223,10 @@
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
@@ -14256,7 +14260,7 @@
         <v>14</v>
       </c>
       <c r="D317" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
@@ -14348,13 +14352,13 @@
         <v>78</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
@@ -14388,7 +14392,7 @@
         <v>21</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
@@ -14450,13 +14454,13 @@
         <v>79</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
@@ -14487,10 +14491,10 @@
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
@@ -14521,10 +14525,10 @@
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
@@ -14616,13 +14620,13 @@
         <v>80</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
@@ -14714,13 +14718,13 @@
         <v>81</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D331" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
@@ -14812,13 +14816,13 @@
         <v>82</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
@@ -14849,10 +14853,10 @@
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
@@ -14883,10 +14887,10 @@
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
@@ -14978,10 +14982,10 @@
         <v>83</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -15074,13 +15078,13 @@
         <v>84</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
@@ -15111,10 +15115,10 @@
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
@@ -15145,10 +15149,10 @@
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
@@ -15330,13 +15334,13 @@
         <v>85</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
@@ -15370,7 +15374,7 @@
         <v>14</v>
       </c>
       <c r="D351" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
@@ -15404,7 +15408,7 @@
         <v>14</v>
       </c>
       <c r="D352" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
@@ -15435,10 +15439,10 @@
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
@@ -15530,10 +15534,10 @@
         <v>86</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -15626,13 +15630,13 @@
         <v>87</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
@@ -15724,13 +15728,13 @@
         <v>88</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
@@ -15761,10 +15765,10 @@
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
@@ -15795,10 +15799,10 @@
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
@@ -15890,13 +15894,13 @@
         <v>89</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
@@ -15930,7 +15934,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
@@ -15964,7 +15968,7 @@
         <v>14</v>
       </c>
       <c r="D369" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
@@ -15998,7 +16002,7 @@
         <v>14</v>
       </c>
       <c r="D370" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
@@ -16029,10 +16033,10 @@
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
@@ -16184,13 +16188,13 @@
         <v>90</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
@@ -16224,7 +16228,7 @@
         <v>8</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
@@ -16258,7 +16262,7 @@
         <v>8</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
@@ -16292,7 +16296,7 @@
         <v>8</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
@@ -16384,13 +16388,13 @@
         <v>91</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
@@ -16421,10 +16425,10 @@
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
@@ -16455,10 +16459,10 @@
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
@@ -16489,10 +16493,10 @@
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
@@ -16523,10 +16527,10 @@
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
@@ -16618,13 +16622,13 @@
         <v>92</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
@@ -16658,7 +16662,7 @@
         <v>14</v>
       </c>
       <c r="D390" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
@@ -16689,10 +16693,10 @@
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
@@ -16726,7 +16730,7 @@
         <v>14</v>
       </c>
       <c r="D392" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
@@ -16818,13 +16822,13 @@
         <v>93</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
@@ -16916,10 +16920,10 @@
         <v>94</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -17012,13 +17016,13 @@
         <v>95</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
@@ -17052,7 +17056,7 @@
         <v>50</v>
       </c>
       <c r="D402" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
@@ -17144,10 +17148,10 @@
         <v>96</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -17240,13 +17244,13 @@
         <v>108</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D408" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
@@ -17338,13 +17342,13 @@
         <v>109</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
@@ -17375,10 +17379,10 @@
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
@@ -17470,13 +17474,13 @@
         <v>110</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
@@ -17510,7 +17514,7 @@
         <v>21</v>
       </c>
       <c r="D416" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
@@ -17602,10 +17606,10 @@
         <v>111</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -17698,13 +17702,13 @@
         <v>112</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
@@ -17735,10 +17739,10 @@
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
@@ -17830,13 +17834,13 @@
         <v>113</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
@@ -17870,7 +17874,7 @@
         <v>21</v>
       </c>
       <c r="D427" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
@@ -17962,13 +17966,13 @@
         <v>114</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
@@ -17999,10 +18003,10 @@
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D431" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
@@ -18094,13 +18098,13 @@
         <v>115</v>
       </c>
       <c r="B434" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
@@ -18131,10 +18135,10 @@
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
@@ -18165,10 +18169,10 @@
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
@@ -18260,13 +18264,13 @@
         <v>116</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D439" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
@@ -18358,13 +18362,13 @@
         <v>117</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
@@ -18395,10 +18399,10 @@
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
@@ -18490,13 +18494,13 @@
         <v>118</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D446" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
@@ -18588,13 +18592,13 @@
         <v>119</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D449" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
@@ -18686,13 +18690,13 @@
         <v>120</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
@@ -18723,10 +18727,10 @@
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
@@ -18818,13 +18822,13 @@
         <v>121</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D456" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
@@ -18916,13 +18920,13 @@
         <v>122</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
@@ -18956,7 +18960,7 @@
         <v>17</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
@@ -19048,10 +19052,10 @@
         <v>123</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -19144,13 +19148,13 @@
         <v>124</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D466" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
@@ -19242,13 +19246,13 @@
         <v>125</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
@@ -19279,10 +19283,10 @@
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
@@ -19374,13 +19378,13 @@
         <v>126</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
@@ -19414,7 +19418,7 @@
         <v>14</v>
       </c>
       <c r="D474" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
@@ -19506,13 +19510,13 @@
         <v>127</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D477" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
@@ -19604,13 +19608,13 @@
         <v>128</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
@@ -19641,10 +19645,10 @@
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
@@ -19675,10 +19679,10 @@
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
@@ -19770,13 +19774,13 @@
         <v>129</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
@@ -19807,10 +19811,10 @@
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D486" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
@@ -19902,13 +19906,13 @@
         <v>130</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
@@ -19939,10 +19943,10 @@
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D490" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
@@ -20003,7 +20007,7 @@
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
-      <c r="D492" s="2"/>
+      <c r="D492" s="9"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
       <c r="G492" s="2"/>
@@ -20030,10 +20034,18 @@
       <c r="AB492" s="2"/>
     </row>
     <row r="493" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A493" s="2"/>
-      <c r="B493" s="2"/>
-      <c r="C493" s="2"/>
-      <c r="D493" s="2"/>
+      <c r="A493" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D493" s="4" t="s">
+        <v>372</v>
+      </c>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
       <c r="G493" s="2"/>
@@ -20060,17 +20072,13 @@
       <c r="AB493" s="2"/>
     </row>
     <row r="494" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A494" s="12">
-        <v>131</v>
-      </c>
-      <c r="B494" s="11" t="s">
-        <v>528</v>
-      </c>
+      <c r="A494" s="2"/>
+      <c r="B494" s="2"/>
       <c r="C494" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
@@ -20100,8 +20108,12 @@
     <row r="495" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
-      <c r="C495" s="2"/>
-      <c r="D495" s="2"/>
+      <c r="C495" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D495" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
       <c r="G495" s="2"/>
@@ -20158,18 +20170,10 @@
       <c r="AB496" s="2"/>
     </row>
     <row r="497" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A497" s="12">
-        <v>132</v>
-      </c>
-      <c r="B497" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C497" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D497" s="4" t="s">
-        <v>374</v>
-      </c>
+      <c r="A497" s="2"/>
+      <c r="B497" s="2"/>
+      <c r="C497" s="2"/>
+      <c r="D497" s="2"/>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
       <c r="G497" s="2"/>
@@ -20196,13 +20200,17 @@
       <c r="AB497" s="2"/>
     </row>
     <row r="498" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A498" s="2"/>
-      <c r="B498" s="2"/>
+      <c r="A498" s="12">
+        <v>131</v>
+      </c>
+      <c r="B498" s="11" t="s">
+        <v>530</v>
+      </c>
       <c r="C498" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D498" s="9" t="s">
-        <v>375</v>
+        <v>92</v>
+      </c>
+      <c r="D498" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
@@ -20291,16 +20299,16 @@
     </row>
     <row r="501" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="12">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
@@ -20331,10 +20339,10 @@
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D502" s="4" t="s">
-        <v>378</v>
+        <v>21</v>
+      </c>
+      <c r="D502" s="9" t="s">
+        <v>376</v>
       </c>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
@@ -20364,12 +20372,8 @@
     <row r="503" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
-      <c r="C503" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D503" s="4" t="s">
-        <v>379</v>
-      </c>
+      <c r="C503" s="2"/>
+      <c r="D503" s="2"/>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
       <c r="G503" s="2"/>
@@ -20398,12 +20402,8 @@
     <row r="504" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
-      <c r="C504" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D504" s="4" t="s">
-        <v>380</v>
-      </c>
+      <c r="C504" s="2"/>
+      <c r="D504" s="2"/>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
       <c r="G504" s="2"/>
@@ -20430,10 +20430,18 @@
       <c r="AB504" s="2"/>
     </row>
     <row r="505" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A505" s="2"/>
-      <c r="B505" s="2"/>
-      <c r="C505" s="2"/>
-      <c r="D505" s="2"/>
+      <c r="A505" s="12">
+        <v>133</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D505" s="4" t="s">
+        <v>378</v>
+      </c>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
       <c r="G505" s="2"/>
@@ -20462,8 +20470,12 @@
     <row r="506" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
-      <c r="C506" s="2"/>
-      <c r="D506" s="2"/>
+      <c r="C506" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D506" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
       <c r="G506" s="2"/>
@@ -20490,17 +20502,13 @@
       <c r="AB506" s="2"/>
     </row>
     <row r="507" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A507" s="12">
-        <v>134</v>
-      </c>
-      <c r="B507" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="A507" s="2"/>
+      <c r="B507" s="2"/>
       <c r="C507" s="2" t="s">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
@@ -20531,10 +20539,10 @@
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D508" s="9" t="s">
-        <v>375</v>
+        <v>14</v>
+      </c>
+      <c r="D508" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
@@ -20564,12 +20572,8 @@
     <row r="509" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
-      <c r="C509" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D509" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="C509" s="2"/>
+      <c r="D509" s="2"/>
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
       <c r="G509" s="2"/>
@@ -20626,10 +20630,18 @@
       <c r="AB510" s="2"/>
     </row>
     <row r="511" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A511" s="2"/>
-      <c r="B511" s="2"/>
-      <c r="C511" s="2"/>
-      <c r="D511" s="2"/>
+      <c r="A511" s="12">
+        <v>134</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D511" s="4" t="s">
+        <v>375</v>
+      </c>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
       <c r="G511" s="2"/>
@@ -20656,16 +20668,14 @@
       <c r="AB511" s="2"/>
     </row>
     <row r="512" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A512" s="12">
-        <v>135</v>
-      </c>
-      <c r="B512" s="2" t="s">
-        <v>382</v>
-      </c>
+      <c r="A512" s="2"/>
+      <c r="B512" s="2"/>
       <c r="C512" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D512" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D512" s="9" t="s">
+        <v>376</v>
+      </c>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
       <c r="G512" s="2"/>
@@ -20694,8 +20704,12 @@
     <row r="513" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
-      <c r="C513" s="2"/>
-      <c r="D513" s="2"/>
+      <c r="C513" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D513" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
       <c r="G513" s="2"/>
@@ -20721,7 +20735,7 @@
       <c r="AA513" s="2"/>
       <c r="AB513" s="2"/>
     </row>
-    <row r="514" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -20752,6 +20766,10 @@
       <c r="AB514" s="2"/>
     </row>
     <row r="515" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A515" s="2"/>
+      <c r="B515" s="2"/>
+      <c r="C515" s="2"/>
+      <c r="D515" s="2"/>
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
       <c r="G515" s="2"/>
@@ -20778,6 +20796,16 @@
       <c r="AB515" s="2"/>
     </row>
     <row r="516" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A516" s="12">
+        <v>135</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D516" s="2"/>
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
       <c r="G516" s="2"/>
@@ -20804,18 +20832,10 @@
       <c r="AB516" s="2"/>
     </row>
     <row r="517" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A517" s="12">
-        <v>136</v>
-      </c>
-      <c r="B517" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C517" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D517" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="A517" s="2"/>
+      <c r="B517" s="2"/>
+      <c r="C517" s="2"/>
+      <c r="D517" s="2"/>
       <c r="E517" s="2"/>
       <c r="F517" s="2"/>
       <c r="G517" s="2"/>
@@ -20841,15 +20861,11 @@
       <c r="AA517" s="2"/>
       <c r="AB517" s="2"/>
     </row>
-    <row r="518" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
-      <c r="C518" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D518" s="4" t="s">
-        <v>211</v>
-      </c>
+      <c r="C518" s="2"/>
+      <c r="D518" s="2"/>
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
       <c r="G518" s="2"/>
@@ -20876,14 +20892,6 @@
       <c r="AB518" s="2"/>
     </row>
     <row r="519" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A519" s="2"/>
-      <c r="B519" s="2"/>
-      <c r="C519" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D519" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
       <c r="G519" s="2"/>
@@ -20910,10 +20918,6 @@
       <c r="AB519" s="2"/>
     </row>
     <row r="520" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A520" s="2"/>
-      <c r="B520" s="2"/>
-      <c r="C520" s="2"/>
-      <c r="D520" s="2"/>
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
       <c r="G520" s="2"/>
@@ -20940,10 +20944,18 @@
       <c r="AB520" s="2"/>
     </row>
     <row r="521" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A521" s="2"/>
-      <c r="B521" s="2"/>
-      <c r="C521" s="2"/>
-      <c r="D521" s="2"/>
+      <c r="A521" s="12">
+        <v>136</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D521" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
       <c r="G521" s="2"/>
@@ -20970,17 +20982,13 @@
       <c r="AB521" s="2"/>
     </row>
     <row r="522" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A522" s="12">
-        <v>137</v>
-      </c>
-      <c r="B522" s="2" t="s">
-        <v>386</v>
-      </c>
+      <c r="A522" s="2"/>
+      <c r="B522" s="2"/>
       <c r="C522" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D522" s="4" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
@@ -21010,8 +21018,12 @@
     <row r="523" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
-      <c r="C523" s="2"/>
-      <c r="D523" s="2"/>
+      <c r="C523" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D523" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
       <c r="G523" s="2"/>
@@ -21068,18 +21080,10 @@
       <c r="AB524" s="2"/>
     </row>
     <row r="525" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A525" s="12">
-        <v>138</v>
-      </c>
-      <c r="B525" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C525" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D525" s="4" t="s">
-        <v>388</v>
-      </c>
+      <c r="A525" s="2"/>
+      <c r="B525" s="2"/>
+      <c r="C525" s="2"/>
+      <c r="D525" s="2"/>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
       <c r="G525" s="2"/>
@@ -21106,10 +21110,18 @@
       <c r="AB525" s="2"/>
     </row>
     <row r="526" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A526" s="2"/>
-      <c r="B526" s="2"/>
-      <c r="C526" s="2"/>
-      <c r="D526" s="2"/>
+      <c r="A526" s="12">
+        <v>137</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D526" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
       <c r="G526" s="2"/>
@@ -21166,18 +21178,10 @@
       <c r="AB527" s="2"/>
     </row>
     <row r="528" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A528" s="12">
-        <v>139</v>
-      </c>
-      <c r="B528" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C528" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D528" s="4" t="s">
-        <v>390</v>
-      </c>
+      <c r="A528" s="2"/>
+      <c r="B528" s="2"/>
+      <c r="C528" s="2"/>
+      <c r="D528" s="2"/>
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
       <c r="G528" s="2"/>
@@ -21204,10 +21208,18 @@
       <c r="AB528" s="2"/>
     </row>
     <row r="529" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A529" s="2"/>
-      <c r="B529" s="2"/>
-      <c r="C529" s="2"/>
-      <c r="D529" s="2"/>
+      <c r="A529" s="12">
+        <v>138</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D529" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
       <c r="G529" s="2"/>
@@ -21264,18 +21276,10 @@
       <c r="AB530" s="2"/>
     </row>
     <row r="531" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A531" s="12">
-        <v>140</v>
-      </c>
-      <c r="B531" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C531" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D531" s="4" t="s">
-        <v>392</v>
-      </c>
+      <c r="A531" s="2"/>
+      <c r="B531" s="2"/>
+      <c r="C531" s="2"/>
+      <c r="D531" s="2"/>
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
       <c r="G531" s="2"/>
@@ -21302,13 +21306,17 @@
       <c r="AB531" s="2"/>
     </row>
     <row r="532" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A532" s="2"/>
-      <c r="B532" s="2"/>
+      <c r="A532" s="12">
+        <v>139</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="C532" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D532" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
@@ -21397,15 +21405,17 @@
     </row>
     <row r="535" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="12">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D535" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D535" s="4" t="s">
+        <v>393</v>
+      </c>
       <c r="E535" s="2"/>
       <c r="F535" s="2"/>
       <c r="G535" s="2"/>
@@ -21434,8 +21444,12 @@
     <row r="536" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
-      <c r="C536" s="2"/>
-      <c r="D536" s="2"/>
+      <c r="C536" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D536" s="4" t="s">
+        <v>394</v>
+      </c>
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
       <c r="G536" s="2"/>
@@ -21492,18 +21506,10 @@
       <c r="AB537" s="2"/>
     </row>
     <row r="538" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A538" s="12">
-        <v>142</v>
-      </c>
-      <c r="B538" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C538" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D538" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="A538" s="2"/>
+      <c r="B538" s="2"/>
+      <c r="C538" s="2"/>
+      <c r="D538" s="2"/>
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
       <c r="G538" s="2"/>
@@ -21530,9 +21536,15 @@
       <c r="AB538" s="2"/>
     </row>
     <row r="539" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A539" s="2"/>
-      <c r="B539" s="2"/>
-      <c r="C539" s="2"/>
+      <c r="A539" s="12">
+        <v>141</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
@@ -21590,18 +21602,10 @@
       <c r="AB540" s="2"/>
     </row>
     <row r="541" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A541" s="12">
-        <v>143</v>
-      </c>
-      <c r="B541" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C541" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D541" s="4" t="s">
-        <v>396</v>
-      </c>
+      <c r="A541" s="2"/>
+      <c r="B541" s="2"/>
+      <c r="C541" s="2"/>
+      <c r="D541" s="2"/>
       <c r="E541" s="2"/>
       <c r="F541" s="2"/>
       <c r="G541" s="2"/>
@@ -21628,10 +21632,18 @@
       <c r="AB541" s="2"/>
     </row>
     <row r="542" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A542" s="2"/>
-      <c r="B542" s="2"/>
-      <c r="C542" s="2"/>
-      <c r="D542" s="2"/>
+      <c r="A542" s="12">
+        <v>142</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D542" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E542" s="2"/>
       <c r="F542" s="2"/>
       <c r="G542" s="2"/>
@@ -21688,18 +21700,10 @@
       <c r="AB543" s="2"/>
     </row>
     <row r="544" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A544" s="12">
-        <v>144</v>
-      </c>
-      <c r="B544" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C544" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D544" s="4" t="s">
-        <v>398</v>
-      </c>
+      <c r="A544" s="2"/>
+      <c r="B544" s="2"/>
+      <c r="C544" s="2"/>
+      <c r="D544" s="2"/>
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
       <c r="G544" s="2"/>
@@ -21726,10 +21730,18 @@
       <c r="AB544" s="2"/>
     </row>
     <row r="545" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A545" s="2"/>
-      <c r="B545" s="2"/>
-      <c r="C545" s="2"/>
-      <c r="D545" s="2"/>
+      <c r="A545" s="12">
+        <v>143</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D545" s="4" t="s">
+        <v>397</v>
+      </c>
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
       <c r="G545" s="2"/>
@@ -21786,18 +21798,10 @@
       <c r="AB546" s="2"/>
     </row>
     <row r="547" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A547" s="12">
-        <v>145</v>
-      </c>
-      <c r="B547" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C547" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D547" s="4" t="s">
-        <v>400</v>
-      </c>
+      <c r="A547" s="2"/>
+      <c r="B547" s="2"/>
+      <c r="C547" s="2"/>
+      <c r="D547" s="2"/>
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
       <c r="G547" s="2"/>
@@ -21824,10 +21828,18 @@
       <c r="AB547" s="2"/>
     </row>
     <row r="548" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A548" s="2"/>
-      <c r="B548" s="2"/>
-      <c r="C548" s="2"/>
-      <c r="D548" s="2"/>
+      <c r="A548" s="12">
+        <v>144</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D548" s="4" t="s">
+        <v>399</v>
+      </c>
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
       <c r="G548" s="2"/>
@@ -21884,18 +21896,10 @@
       <c r="AB549" s="2"/>
     </row>
     <row r="550" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A550" s="12">
-        <v>146</v>
-      </c>
-      <c r="B550" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C550" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D550" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="A550" s="2"/>
+      <c r="B550" s="2"/>
+      <c r="C550" s="2"/>
+      <c r="D550" s="2"/>
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
       <c r="G550" s="2"/>
@@ -21922,10 +21926,18 @@
       <c r="AB550" s="2"/>
     </row>
     <row r="551" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A551" s="2"/>
-      <c r="B551" s="2"/>
-      <c r="C551" s="2"/>
-      <c r="D551" s="2"/>
+      <c r="A551" s="12">
+        <v>145</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D551" s="4" t="s">
+        <v>401</v>
+      </c>
       <c r="E551" s="2"/>
       <c r="F551" s="2"/>
       <c r="G551" s="2"/>
@@ -21982,18 +21994,10 @@
       <c r="AB552" s="2"/>
     </row>
     <row r="553" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A553" s="12">
-        <v>147</v>
-      </c>
-      <c r="B553" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C553" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D553" s="4" t="s">
-        <v>403</v>
-      </c>
+      <c r="A553" s="2"/>
+      <c r="B553" s="2"/>
+      <c r="C553" s="2"/>
+      <c r="D553" s="2"/>
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
       <c r="G553" s="2"/>
@@ -22020,13 +22024,17 @@
       <c r="AB553" s="2"/>
     </row>
     <row r="554" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A554" s="2"/>
-      <c r="B554" s="2"/>
+      <c r="A554" s="12">
+        <v>146</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="C554" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D554" s="9" t="s">
-        <v>404</v>
+        <v>88</v>
+      </c>
+      <c r="D554" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
@@ -22056,12 +22064,8 @@
     <row r="555" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
-      <c r="C555" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D555" s="9" t="s">
-        <v>405</v>
-      </c>
+      <c r="C555" s="2"/>
+      <c r="D555" s="2"/>
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
       <c r="G555" s="2"/>
@@ -22090,12 +22094,8 @@
     <row r="556" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
-      <c r="C556" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D556" s="4" t="s">
-        <v>308</v>
-      </c>
+      <c r="C556" s="2"/>
+      <c r="D556" s="2"/>
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
       <c r="G556" s="2"/>
@@ -22122,10 +22122,18 @@
       <c r="AB556" s="2"/>
     </row>
     <row r="557" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A557" s="2"/>
-      <c r="B557" s="2"/>
-      <c r="C557" s="2"/>
-      <c r="D557" s="2"/>
+      <c r="A557" s="12">
+        <v>147</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D557" s="4" t="s">
+        <v>404</v>
+      </c>
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
       <c r="G557" s="2"/>
@@ -22154,8 +22162,12 @@
     <row r="558" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
-      <c r="C558" s="2"/>
-      <c r="D558" s="2"/>
+      <c r="C558" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D558" s="9" t="s">
+        <v>405</v>
+      </c>
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
       <c r="G558" s="2"/>
@@ -22182,17 +22194,13 @@
       <c r="AB558" s="2"/>
     </row>
     <row r="559" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A559" s="12">
-        <v>148</v>
-      </c>
-      <c r="B559" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="A559" s="2"/>
+      <c r="B559" s="2"/>
       <c r="C559" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D559" s="4" t="s">
-        <v>317</v>
+        <v>14</v>
+      </c>
+      <c r="D559" s="9" t="s">
+        <v>406</v>
       </c>
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
@@ -22223,10 +22231,10 @@
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D560" s="9" t="s">
-        <v>406</v>
+        <v>92</v>
+      </c>
+      <c r="D560" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
@@ -22256,12 +22264,8 @@
     <row r="561" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
-      <c r="C561" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D561" s="9" t="s">
-        <v>406</v>
-      </c>
+      <c r="C561" s="2"/>
+      <c r="D561" s="2"/>
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
       <c r="G561" s="2"/>
@@ -22290,12 +22294,8 @@
     <row r="562" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
-      <c r="C562" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D562" s="9" t="s">
-        <v>406</v>
-      </c>
+      <c r="C562" s="2"/>
+      <c r="D562" s="2"/>
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
       <c r="G562" s="2"/>
@@ -22322,10 +22322,18 @@
       <c r="AB562" s="2"/>
     </row>
     <row r="563" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A563" s="2"/>
-      <c r="B563" s="2"/>
-      <c r="C563" s="2"/>
-      <c r="D563" s="2"/>
+      <c r="A563" s="12">
+        <v>148</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D563" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
       <c r="G563" s="2"/>
@@ -22354,8 +22362,12 @@
     <row r="564" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
-      <c r="C564" s="2"/>
-      <c r="D564" s="2"/>
+      <c r="C564" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D564" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
       <c r="G564" s="2"/>
@@ -22382,16 +22394,14 @@
       <c r="AB564" s="2"/>
     </row>
     <row r="565" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A565" s="12">
-        <v>149</v>
-      </c>
-      <c r="B565" s="2" t="s">
+      <c r="A565" s="2"/>
+      <c r="B565" s="2"/>
+      <c r="C565" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D565" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="C565" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D565" s="2"/>
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
       <c r="G565" s="2"/>
@@ -22420,8 +22430,12 @@
     <row r="566" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
-      <c r="C566" s="2"/>
-      <c r="D566" s="2"/>
+      <c r="C566" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D566" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
       <c r="G566" s="2"/>
@@ -22478,18 +22492,10 @@
       <c r="AB567" s="2"/>
     </row>
     <row r="568" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A568" s="12">
-        <v>150</v>
-      </c>
-      <c r="B568" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C568" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D568" s="4" t="s">
-        <v>403</v>
-      </c>
+      <c r="A568" s="2"/>
+      <c r="B568" s="2"/>
+      <c r="C568" s="2"/>
+      <c r="D568" s="2"/>
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
       <c r="G568" s="2"/>
@@ -22516,14 +22522,16 @@
       <c r="AB568" s="2"/>
     </row>
     <row r="569" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A569" s="2"/>
-      <c r="B569" s="2"/>
+      <c r="A569" s="12">
+        <v>149</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>408</v>
+      </c>
       <c r="C569" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D569" s="9" t="s">
-        <v>409</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D569" s="2"/>
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
       <c r="G569" s="2"/>
@@ -22611,16 +22619,16 @@
     </row>
     <row r="572" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="12">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
@@ -22651,10 +22659,10 @@
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D573" s="4" t="s">
-        <v>411</v>
+        <v>14</v>
+      </c>
+      <c r="D573" s="9" t="s">
+        <v>410</v>
       </c>
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
@@ -22684,12 +22692,8 @@
     <row r="574" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
-      <c r="C574" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D574" s="4" t="s">
-        <v>412</v>
-      </c>
+      <c r="C574" s="2"/>
+      <c r="D574" s="2"/>
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
       <c r="G574" s="2"/>
@@ -22746,10 +22750,18 @@
       <c r="AB575" s="2"/>
     </row>
     <row r="576" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A576" s="2"/>
-      <c r="B576" s="2"/>
-      <c r="C576" s="2"/>
-      <c r="D576" s="2"/>
+      <c r="A576" s="12">
+        <v>151</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D576" s="4" t="s">
+        <v>404</v>
+      </c>
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
       <c r="G576" s="2"/>
@@ -22776,16 +22788,14 @@
       <c r="AB576" s="2"/>
     </row>
     <row r="577" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A577" s="12">
-        <v>152</v>
-      </c>
-      <c r="B577" s="2" t="s">
-        <v>413</v>
-      </c>
+      <c r="A577" s="2"/>
+      <c r="B577" s="2"/>
       <c r="C577" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D577" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D577" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
       <c r="G577" s="2"/>
@@ -22814,8 +22824,12 @@
     <row r="578" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
-      <c r="C578" s="2"/>
-      <c r="D578" s="2"/>
+      <c r="C578" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D578" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
       <c r="G578" s="2"/>
@@ -22872,18 +22886,10 @@
       <c r="AB579" s="2"/>
     </row>
     <row r="580" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A580" s="12">
-        <v>153</v>
-      </c>
-      <c r="B580" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C580" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D580" s="4" t="s">
-        <v>415</v>
-      </c>
+      <c r="A580" s="2"/>
+      <c r="B580" s="2"/>
+      <c r="C580" s="2"/>
+      <c r="D580" s="2"/>
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
       <c r="G580" s="2"/>
@@ -22910,9 +22916,15 @@
       <c r="AB580" s="2"/>
     </row>
     <row r="581" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A581" s="2"/>
-      <c r="B581" s="2"/>
-      <c r="C581" s="2"/>
+      <c r="A581" s="12">
+        <v>152</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D581" s="2"/>
       <c r="E581" s="2"/>
       <c r="F581" s="2"/>
@@ -22970,18 +22982,10 @@
       <c r="AB582" s="2"/>
     </row>
     <row r="583" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A583" s="12">
-        <v>154</v>
-      </c>
-      <c r="B583" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C583" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D583" s="4" t="s">
-        <v>388</v>
-      </c>
+      <c r="A583" s="2"/>
+      <c r="B583" s="2"/>
+      <c r="C583" s="2"/>
+      <c r="D583" s="2"/>
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
       <c r="G583" s="2"/>
@@ -23008,10 +23012,18 @@
       <c r="AB583" s="2"/>
     </row>
     <row r="584" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A584" s="2"/>
-      <c r="B584" s="2"/>
-      <c r="C584" s="2"/>
-      <c r="D584" s="2"/>
+      <c r="A584" s="12">
+        <v>153</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D584" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
       <c r="G584" s="2"/>
@@ -23068,18 +23080,10 @@
       <c r="AB585" s="2"/>
     </row>
     <row r="586" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A586" s="12">
-        <v>155</v>
-      </c>
-      <c r="B586" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C586" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D586" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="A586" s="2"/>
+      <c r="B586" s="2"/>
+      <c r="C586" s="2"/>
+      <c r="D586" s="2"/>
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
       <c r="G586" s="2"/>
@@ -23106,10 +23110,18 @@
       <c r="AB586" s="2"/>
     </row>
     <row r="587" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A587" s="2"/>
-      <c r="B587" s="2"/>
-      <c r="C587" s="2"/>
-      <c r="D587" s="2"/>
+      <c r="A587" s="12">
+        <v>154</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D587" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
       <c r="G587" s="2"/>
@@ -23166,18 +23178,10 @@
       <c r="AB588" s="2"/>
     </row>
     <row r="589" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A589" s="12">
-        <v>156</v>
-      </c>
-      <c r="B589" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C589" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D589" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="A589" s="2"/>
+      <c r="B589" s="2"/>
+      <c r="C589" s="2"/>
+      <c r="D589" s="2"/>
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
       <c r="G589" s="2"/>
@@ -23204,13 +23208,17 @@
       <c r="AB589" s="2"/>
     </row>
     <row r="590" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A590" s="2"/>
-      <c r="B590" s="2"/>
+      <c r="A590" s="12">
+        <v>155</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="C590" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D590" s="4" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
@@ -23240,12 +23248,8 @@
     <row r="591" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
-      <c r="C591" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D591" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="C591" s="2"/>
+      <c r="D591" s="2"/>
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
       <c r="G591" s="2"/>
@@ -23302,10 +23306,18 @@
       <c r="AB592" s="2"/>
     </row>
     <row r="593" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A593" s="2"/>
-      <c r="B593" s="2"/>
-      <c r="C593" s="2"/>
-      <c r="D593" s="2"/>
+      <c r="A593" s="12">
+        <v>156</v>
+      </c>
+      <c r="B593" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D593" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="E593" s="2"/>
       <c r="F593" s="2"/>
       <c r="G593" s="2"/>
@@ -23332,17 +23344,13 @@
       <c r="AB593" s="2"/>
     </row>
     <row r="594" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A594" s="12">
-        <v>157</v>
-      </c>
-      <c r="B594" s="4" t="s">
-        <v>417</v>
-      </c>
+      <c r="A594" s="2"/>
+      <c r="B594" s="2"/>
       <c r="C594" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D594" s="4" t="s">
-        <v>418</v>
+        <v>212</v>
       </c>
       <c r="E594" s="2"/>
       <c r="F594" s="2"/>
@@ -23372,8 +23380,12 @@
     <row r="595" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
-      <c r="C595" s="2"/>
-      <c r="D595" s="2"/>
+      <c r="C595" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D595" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="E595" s="2"/>
       <c r="F595" s="2"/>
       <c r="G595" s="2"/>
@@ -23430,18 +23442,10 @@
       <c r="AB596" s="2"/>
     </row>
     <row r="597" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A597" s="12">
-        <v>158</v>
-      </c>
-      <c r="B597" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C597" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D597" s="4" t="s">
-        <v>420</v>
-      </c>
+      <c r="A597" s="2"/>
+      <c r="B597" s="2"/>
+      <c r="C597" s="2"/>
+      <c r="D597" s="2"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
       <c r="G597" s="2"/>
@@ -23468,10 +23472,18 @@
       <c r="AB597" s="2"/>
     </row>
     <row r="598" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A598" s="2"/>
-      <c r="B598" s="2"/>
-      <c r="C598" s="2"/>
-      <c r="D598" s="2"/>
+      <c r="A598" s="12">
+        <v>157</v>
+      </c>
+      <c r="B598" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D598" s="4" t="s">
+        <v>419</v>
+      </c>
       <c r="E598" s="2"/>
       <c r="F598" s="2"/>
       <c r="G598" s="2"/>
@@ -23528,15 +23540,9 @@
       <c r="AB599" s="2"/>
     </row>
     <row r="600" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A600" s="12">
-        <v>159</v>
-      </c>
-      <c r="B600" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C600" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A600" s="2"/>
+      <c r="B600" s="2"/>
+      <c r="C600" s="2"/>
       <c r="D600" s="2"/>
       <c r="E600" s="2"/>
       <c r="F600" s="2"/>
@@ -23564,10 +23570,18 @@
       <c r="AB600" s="2"/>
     </row>
     <row r="601" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A601" s="2"/>
-      <c r="B601" s="2"/>
-      <c r="C601" s="2"/>
-      <c r="D601" s="2"/>
+      <c r="A601" s="12">
+        <v>158</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D601" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="E601" s="2"/>
       <c r="F601" s="2"/>
       <c r="G601" s="2"/>
@@ -23624,18 +23638,10 @@
       <c r="AB602" s="2"/>
     </row>
     <row r="603" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A603" s="12">
-        <v>160</v>
-      </c>
-      <c r="B603" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C603" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D603" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="A603" s="2"/>
+      <c r="B603" s="2"/>
+      <c r="C603" s="2"/>
+      <c r="D603" s="2"/>
       <c r="E603" s="2"/>
       <c r="F603" s="2"/>
       <c r="G603" s="2"/>
@@ -23662,14 +23668,16 @@
       <c r="AB603" s="2"/>
     </row>
     <row r="604" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A604" s="2"/>
-      <c r="B604" s="2"/>
+      <c r="A604" s="12">
+        <v>159</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>422</v>
+      </c>
       <c r="C604" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D604" s="4" t="s">
-        <v>423</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D604" s="2"/>
       <c r="E604" s="2"/>
       <c r="F604" s="2"/>
       <c r="G604" s="2"/>
@@ -23698,12 +23706,8 @@
     <row r="605" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
-      <c r="C605" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D605" s="4" t="s">
-        <v>424</v>
-      </c>
+      <c r="C605" s="2"/>
+      <c r="D605" s="2"/>
       <c r="E605" s="2"/>
       <c r="F605" s="2"/>
       <c r="G605" s="2"/>
@@ -23760,10 +23764,18 @@
       <c r="AB606" s="2"/>
     </row>
     <row r="607" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A607" s="2"/>
-      <c r="B607" s="2"/>
-      <c r="C607" s="2"/>
-      <c r="D607" s="2"/>
+      <c r="A607" s="12">
+        <v>160</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D607" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
       <c r="G607" s="2"/>
@@ -23790,17 +23802,13 @@
       <c r="AB607" s="2"/>
     </row>
     <row r="608" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A608" s="12">
-        <v>161</v>
-      </c>
-      <c r="B608" s="2" t="s">
-        <v>425</v>
-      </c>
+      <c r="A608" s="2"/>
+      <c r="B608" s="2"/>
       <c r="C608" s="2" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D608" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
@@ -23830,8 +23838,12 @@
     <row r="609" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
-      <c r="C609" s="2"/>
-      <c r="D609" s="2"/>
+      <c r="C609" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D609" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="E609" s="2"/>
       <c r="F609" s="2"/>
       <c r="G609" s="2"/>
@@ -23888,18 +23900,10 @@
       <c r="AB610" s="2"/>
     </row>
     <row r="611" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A611" s="12">
-        <v>162</v>
-      </c>
-      <c r="B611" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C611" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D611" s="4" t="s">
-        <v>211</v>
-      </c>
+      <c r="A611" s="2"/>
+      <c r="B611" s="2"/>
+      <c r="C611" s="2"/>
+      <c r="D611" s="2"/>
       <c r="E611" s="2"/>
       <c r="F611" s="2"/>
       <c r="G611" s="2"/>
@@ -23926,13 +23930,17 @@
       <c r="AB611" s="2"/>
     </row>
     <row r="612" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A612" s="2"/>
-      <c r="B612" s="2"/>
+      <c r="A612" s="12">
+        <v>161</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>426</v>
+      </c>
       <c r="C612" s="2" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D612" s="4" t="s">
-        <v>156</v>
+        <v>427</v>
       </c>
       <c r="E612" s="2"/>
       <c r="F612" s="2"/>
@@ -23962,12 +23970,8 @@
     <row r="613" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
-      <c r="C613" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D613" s="4" t="s">
-        <v>388</v>
-      </c>
+      <c r="C613" s="2"/>
+      <c r="D613" s="2"/>
       <c r="E613" s="2"/>
       <c r="F613" s="2"/>
       <c r="G613" s="2"/>
@@ -24024,10 +24028,18 @@
       <c r="AB614" s="2"/>
     </row>
     <row r="615" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A615" s="2"/>
-      <c r="B615" s="2"/>
-      <c r="C615" s="2"/>
-      <c r="D615" s="2"/>
+      <c r="A615" s="12">
+        <v>162</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D615" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="E615" s="2"/>
       <c r="F615" s="2"/>
       <c r="G615" s="2"/>
@@ -24054,17 +24066,13 @@
       <c r="AB615" s="2"/>
     </row>
     <row r="616" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A616" s="12">
-        <v>163</v>
-      </c>
-      <c r="B616" s="2" t="s">
-        <v>428</v>
-      </c>
+      <c r="A616" s="2"/>
+      <c r="B616" s="2"/>
       <c r="C616" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D616" s="4" t="s">
-        <v>429</v>
+        <v>157</v>
       </c>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
@@ -24095,10 +24103,10 @@
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D617" s="9" t="s">
-        <v>331</v>
+        <v>92</v>
+      </c>
+      <c r="D617" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="E617" s="2"/>
       <c r="F617" s="2"/>
@@ -24187,16 +24195,16 @@
     </row>
     <row r="620" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="12">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D620" s="9" t="s">
-        <v>155</v>
+        <v>86</v>
+      </c>
+      <c r="D620" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="E620" s="2"/>
       <c r="F620" s="2"/>
@@ -24226,8 +24234,12 @@
     <row r="621" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
-      <c r="C621" s="2"/>
-      <c r="D621" s="2"/>
+      <c r="C621" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D621" s="9" t="s">
+        <v>332</v>
+      </c>
       <c r="E621" s="2"/>
       <c r="F621" s="2"/>
       <c r="G621" s="2"/>
@@ -24284,18 +24296,10 @@
       <c r="AB622" s="2"/>
     </row>
     <row r="623" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A623" s="12">
-        <v>165</v>
-      </c>
-      <c r="B623" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C623" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D623" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="A623" s="2"/>
+      <c r="B623" s="2"/>
+      <c r="C623" s="2"/>
+      <c r="D623" s="2"/>
       <c r="E623" s="2"/>
       <c r="F623" s="2"/>
       <c r="G623" s="2"/>
@@ -24322,13 +24326,17 @@
       <c r="AB623" s="2"/>
     </row>
     <row r="624" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A624" s="2"/>
-      <c r="B624" s="2"/>
+      <c r="A624" s="12">
+        <v>164</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="C624" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D624" s="4" t="s">
-        <v>211</v>
+        <v>92</v>
+      </c>
+      <c r="D624" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="E624" s="2"/>
       <c r="F624" s="2"/>
@@ -24358,12 +24366,8 @@
     <row r="625" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
-      <c r="C625" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D625" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="C625" s="2"/>
+      <c r="D625" s="2"/>
       <c r="E625" s="2"/>
       <c r="F625" s="2"/>
       <c r="G625" s="2"/>
@@ -24392,12 +24396,8 @@
     <row r="626" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
-      <c r="C626" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D626" s="4" t="s">
-        <v>321</v>
-      </c>
+      <c r="C626" s="2"/>
+      <c r="D626" s="2"/>
       <c r="E626" s="2"/>
       <c r="F626" s="2"/>
       <c r="G626" s="2"/>
@@ -24424,13 +24424,17 @@
       <c r="AB626" s="2"/>
     </row>
     <row r="627" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A627" s="2"/>
-      <c r="B627" s="2"/>
+      <c r="A627" s="12">
+        <v>165</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>431</v>
+      </c>
       <c r="C627" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D627" s="4" t="s">
-        <v>431</v>
+        <v>167</v>
       </c>
       <c r="E627" s="2"/>
       <c r="F627" s="2"/>
@@ -24461,10 +24465,10 @@
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D628" s="4" t="s">
-        <v>432</v>
+        <v>212</v>
       </c>
       <c r="E628" s="2"/>
       <c r="F628" s="2"/>
@@ -24494,8 +24498,12 @@
     <row r="629" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
-      <c r="C629" s="2"/>
-      <c r="D629" s="2"/>
+      <c r="C629" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D629" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="E629" s="2"/>
       <c r="F629" s="2"/>
       <c r="G629" s="2"/>
@@ -24524,8 +24532,12 @@
     <row r="630" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
-      <c r="C630" s="2"/>
-      <c r="D630" s="2"/>
+      <c r="C630" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D630" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="E630" s="2"/>
       <c r="F630" s="2"/>
       <c r="G630" s="2"/>
@@ -24552,16 +24564,14 @@
       <c r="AB630" s="2"/>
     </row>
     <row r="631" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A631" s="12">
-        <v>166</v>
-      </c>
-      <c r="B631" s="2" t="s">
-        <v>433</v>
-      </c>
+      <c r="A631" s="2"/>
+      <c r="B631" s="2"/>
       <c r="C631" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D631" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="D631" s="4" t="s">
+        <v>432</v>
+      </c>
       <c r="E631" s="2"/>
       <c r="F631" s="2"/>
       <c r="G631" s="2"/>
@@ -24590,8 +24600,12 @@
     <row r="632" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
-      <c r="C632" s="2"/>
-      <c r="D632" s="2"/>
+      <c r="C632" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D632" s="4" t="s">
+        <v>433</v>
+      </c>
       <c r="E632" s="2"/>
       <c r="F632" s="2"/>
       <c r="G632" s="2"/>
@@ -24648,18 +24662,10 @@
       <c r="AB633" s="2"/>
     </row>
     <row r="634" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A634" s="12">
-        <v>167</v>
-      </c>
-      <c r="B634" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C634" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D634" s="9" t="s">
-        <v>434</v>
-      </c>
+      <c r="A634" s="2"/>
+      <c r="B634" s="2"/>
+      <c r="C634" s="2"/>
+      <c r="D634" s="2"/>
       <c r="E634" s="2"/>
       <c r="F634" s="2"/>
       <c r="G634" s="2"/>
@@ -24686,9 +24692,15 @@
       <c r="AB634" s="2"/>
     </row>
     <row r="635" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A635" s="2"/>
-      <c r="B635" s="2"/>
-      <c r="C635" s="2"/>
+      <c r="A635" s="12">
+        <v>166</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D635" s="2"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
@@ -24746,18 +24758,10 @@
       <c r="AB636" s="2"/>
     </row>
     <row r="637" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A637" s="12">
-        <v>168</v>
-      </c>
-      <c r="B637" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C637" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D637" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="A637" s="2"/>
+      <c r="B637" s="2"/>
+      <c r="C637" s="2"/>
+      <c r="D637" s="2"/>
       <c r="E637" s="2"/>
       <c r="F637" s="2"/>
       <c r="G637" s="2"/>
@@ -24784,13 +24788,17 @@
       <c r="AB637" s="2"/>
     </row>
     <row r="638" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A638" s="2"/>
-      <c r="B638" s="2"/>
+      <c r="A638" s="12">
+        <v>167</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>531</v>
+      </c>
       <c r="C638" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D638" s="9" t="s">
-        <v>530</v>
+        <v>435</v>
       </c>
       <c r="E638" s="2"/>
       <c r="F638" s="2"/>
@@ -24879,16 +24887,16 @@
     </row>
     <row r="641" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="12">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>435</v>
+        <v>227</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D641" s="9" t="s">
-        <v>155</v>
+        <v>92</v>
+      </c>
+      <c r="D641" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="E641" s="2"/>
       <c r="F641" s="2"/>
@@ -24919,10 +24927,10 @@
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D642" s="4" t="s">
-        <v>437</v>
+        <v>69</v>
+      </c>
+      <c r="D642" s="9" t="s">
+        <v>532</v>
       </c>
       <c r="E642" s="2"/>
       <c r="F642" s="2"/>
@@ -24952,12 +24960,8 @@
     <row r="643" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
-      <c r="C643" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D643" s="4" t="s">
-        <v>438</v>
-      </c>
+      <c r="C643" s="2"/>
+      <c r="D643" s="2"/>
       <c r="E643" s="2"/>
       <c r="F643" s="2"/>
       <c r="G643" s="2"/>
@@ -24986,12 +24990,8 @@
     <row r="644" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
-      <c r="C644" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D644" s="4" t="s">
-        <v>383</v>
-      </c>
+      <c r="C644" s="2"/>
+      <c r="D644" s="2"/>
       <c r="E644" s="2"/>
       <c r="F644" s="2"/>
       <c r="G644" s="2"/>
@@ -25018,10 +25018,18 @@
       <c r="AB644" s="2"/>
     </row>
     <row r="645" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A645" s="2"/>
-      <c r="B645" s="2"/>
-      <c r="C645" s="2"/>
-      <c r="D645" s="2"/>
+      <c r="A645" s="12">
+        <v>169</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D645" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="E645" s="2"/>
       <c r="F645" s="2"/>
       <c r="G645" s="2"/>
@@ -25050,8 +25058,12 @@
     <row r="646" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
-      <c r="C646" s="2"/>
-      <c r="D646" s="2"/>
+      <c r="C646" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D646" s="4" t="s">
+        <v>438</v>
+      </c>
       <c r="E646" s="2"/>
       <c r="F646" s="2"/>
       <c r="G646" s="2"/>
@@ -25078,17 +25090,13 @@
       <c r="AB646" s="2"/>
     </row>
     <row r="647" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A647" s="12">
-        <v>170</v>
-      </c>
-      <c r="B647" s="2" t="s">
+      <c r="A647" s="2"/>
+      <c r="B647" s="2"/>
+      <c r="C647" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D647" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="C647" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D647" s="9" t="s">
-        <v>440</v>
       </c>
       <c r="E647" s="2"/>
       <c r="F647" s="2"/>
@@ -25119,10 +25127,10 @@
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="E648" s="2"/>
       <c r="F648" s="2"/>
@@ -25152,12 +25160,8 @@
     <row r="649" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
-      <c r="C649" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D649" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="C649" s="2"/>
+      <c r="D649" s="2"/>
       <c r="E649" s="2"/>
       <c r="F649" s="2"/>
       <c r="G649" s="2"/>
@@ -25214,10 +25218,18 @@
       <c r="AB650" s="2"/>
     </row>
     <row r="651" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A651" s="2"/>
-      <c r="B651" s="2"/>
-      <c r="C651" s="2"/>
-      <c r="D651" s="2"/>
+      <c r="A651" s="12">
+        <v>170</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D651" s="9" t="s">
+        <v>441</v>
+      </c>
       <c r="E651" s="2"/>
       <c r="F651" s="2"/>
       <c r="G651" s="2"/>
@@ -25244,16 +25256,14 @@
       <c r="AB651" s="2"/>
     </row>
     <row r="652" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A652" s="12">
-        <v>171</v>
-      </c>
-      <c r="B652" s="2" t="s">
-        <v>356</v>
-      </c>
+      <c r="A652" s="2"/>
+      <c r="B652" s="2"/>
       <c r="C652" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D652" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D652" s="4" t="s">
+        <v>442</v>
+      </c>
       <c r="E652" s="2"/>
       <c r="F652" s="2"/>
       <c r="G652" s="2"/>
@@ -25282,8 +25292,12 @@
     <row r="653" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
-      <c r="C653" s="2"/>
-      <c r="D653" s="2"/>
+      <c r="C653" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D653" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E653" s="2"/>
       <c r="F653" s="2"/>
       <c r="G653" s="2"/>
@@ -25340,18 +25354,10 @@
       <c r="AB654" s="2"/>
     </row>
     <row r="655" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A655" s="11">
-        <v>172</v>
-      </c>
-      <c r="B655" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C655" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D655" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="A655" s="2"/>
+      <c r="B655" s="2"/>
+      <c r="C655" s="2"/>
+      <c r="D655" s="2"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
       <c r="G655" s="2"/>
@@ -25378,9 +25384,15 @@
       <c r="AB655" s="2"/>
     </row>
     <row r="656" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A656" s="2"/>
-      <c r="B656" s="2"/>
-      <c r="C656" s="2"/>
+      <c r="A656" s="12">
+        <v>171</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D656" s="2"/>
       <c r="E656" s="2"/>
       <c r="F656" s="2"/>
@@ -25438,18 +25450,10 @@
       <c r="AB657" s="2"/>
     </row>
     <row r="658" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A658" s="12">
-        <v>173</v>
-      </c>
-      <c r="B658" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C658" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D658" s="9" t="s">
-        <v>444</v>
-      </c>
+      <c r="A658" s="2"/>
+      <c r="B658" s="2"/>
+      <c r="C658" s="2"/>
+      <c r="D658" s="2"/>
       <c r="E658" s="2"/>
       <c r="F658" s="2"/>
       <c r="G658" s="2"/>
@@ -25476,10 +25480,18 @@
       <c r="AB658" s="2"/>
     </row>
     <row r="659" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A659" s="2"/>
-      <c r="B659" s="2"/>
-      <c r="C659" s="2"/>
-      <c r="D659" s="2"/>
+      <c r="A659" s="11">
+        <v>172</v>
+      </c>
+      <c r="B659" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D659" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E659" s="2"/>
       <c r="F659" s="2"/>
       <c r="G659" s="2"/>
@@ -25536,18 +25548,10 @@
       <c r="AB660" s="2"/>
     </row>
     <row r="661" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A661" s="12">
-        <v>174</v>
-      </c>
-      <c r="B661" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C661" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D661" s="4" t="s">
-        <v>446</v>
-      </c>
+      <c r="A661" s="2"/>
+      <c r="B661" s="2"/>
+      <c r="C661" s="2"/>
+      <c r="D661" s="2"/>
       <c r="E661" s="2"/>
       <c r="F661" s="2"/>
       <c r="G661" s="2"/>
@@ -25574,10 +25578,18 @@
       <c r="AB661" s="2"/>
     </row>
     <row r="662" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A662" s="2"/>
-      <c r="B662" s="2"/>
-      <c r="C662" s="2"/>
-      <c r="D662" s="2"/>
+      <c r="A662" s="12">
+        <v>173</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D662" s="9" t="s">
+        <v>445</v>
+      </c>
       <c r="E662" s="2"/>
       <c r="F662" s="2"/>
       <c r="G662" s="2"/>
@@ -25634,18 +25646,10 @@
       <c r="AB663" s="2"/>
     </row>
     <row r="664" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A664" s="12">
-        <v>175</v>
-      </c>
-      <c r="B664" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C664" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D664" s="4" t="s">
-        <v>448</v>
-      </c>
+      <c r="A664" s="2"/>
+      <c r="B664" s="2"/>
+      <c r="C664" s="2"/>
+      <c r="D664" s="2"/>
       <c r="E664" s="2"/>
       <c r="F664" s="2"/>
       <c r="G664" s="2"/>
@@ -25672,10 +25676,18 @@
       <c r="AB664" s="2"/>
     </row>
     <row r="665" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A665" s="2"/>
-      <c r="B665" s="2"/>
-      <c r="C665" s="2"/>
-      <c r="D665" s="2"/>
+      <c r="A665" s="12">
+        <v>174</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D665" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="E665" s="2"/>
       <c r="F665" s="2"/>
       <c r="G665" s="2"/>
@@ -25732,18 +25744,10 @@
       <c r="AB666" s="2"/>
     </row>
     <row r="667" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A667" s="12">
-        <v>176</v>
-      </c>
-      <c r="B667" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C667" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D667" s="4" t="s">
-        <v>450</v>
-      </c>
+      <c r="A667" s="2"/>
+      <c r="B667" s="2"/>
+      <c r="C667" s="2"/>
+      <c r="D667" s="2"/>
       <c r="E667" s="2"/>
       <c r="F667" s="2"/>
       <c r="G667" s="2"/>
@@ -25770,10 +25774,18 @@
       <c r="AB667" s="2"/>
     </row>
     <row r="668" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A668" s="2"/>
-      <c r="B668" s="2"/>
-      <c r="C668" s="2"/>
-      <c r="D668" s="2"/>
+      <c r="A668" s="12">
+        <v>175</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D668" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="E668" s="2"/>
       <c r="F668" s="2"/>
       <c r="G668" s="2"/>
@@ -25830,18 +25842,10 @@
       <c r="AB669" s="2"/>
     </row>
     <row r="670" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A670" s="12">
-        <v>177</v>
-      </c>
-      <c r="B670" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C670" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D670" s="4" t="s">
-        <v>452</v>
-      </c>
+      <c r="A670" s="2"/>
+      <c r="B670" s="2"/>
+      <c r="C670" s="2"/>
+      <c r="D670" s="2"/>
       <c r="E670" s="2"/>
       <c r="F670" s="2"/>
       <c r="G670" s="2"/>
@@ -25868,13 +25872,17 @@
       <c r="AB670" s="2"/>
     </row>
     <row r="671" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A671" s="2"/>
-      <c r="B671" s="2"/>
+      <c r="A671" s="12">
+        <v>176</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>450</v>
+      </c>
       <c r="C671" s="2" t="s">
-        <v>436</v>
+        <v>92</v>
       </c>
       <c r="D671" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E671" s="2"/>
       <c r="F671" s="2"/>
@@ -25904,12 +25912,8 @@
     <row r="672" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
-      <c r="C672" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D672" s="4" t="s">
-        <v>454</v>
-      </c>
+      <c r="C672" s="2"/>
+      <c r="D672" s="2"/>
       <c r="E672" s="2"/>
       <c r="F672" s="2"/>
       <c r="G672" s="2"/>
@@ -25938,12 +25942,8 @@
     <row r="673" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
-      <c r="C673" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D673" s="9" t="s">
-        <v>455</v>
-      </c>
+      <c r="C673" s="2"/>
+      <c r="D673" s="2"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
       <c r="G673" s="2"/>
@@ -25970,13 +25970,17 @@
       <c r="AB673" s="2"/>
     </row>
     <row r="674" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A674" s="2"/>
-      <c r="B674" s="2"/>
+      <c r="A674" s="12">
+        <v>177</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>452</v>
+      </c>
       <c r="C674" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D674" s="9" t="s">
-        <v>456</v>
+        <v>60</v>
+      </c>
+      <c r="D674" s="4" t="s">
+        <v>453</v>
       </c>
       <c r="E674" s="2"/>
       <c r="F674" s="2"/>
@@ -26006,8 +26010,12 @@
     <row r="675" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
-      <c r="C675" s="2"/>
-      <c r="D675" s="2"/>
+      <c r="C675" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D675" s="4" t="s">
+        <v>454</v>
+      </c>
       <c r="E675" s="2"/>
       <c r="F675" s="2"/>
       <c r="G675" s="2"/>
@@ -26036,8 +26044,12 @@
     <row r="676" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
-      <c r="C676" s="2"/>
-      <c r="D676" s="2"/>
+      <c r="C676" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D676" s="4" t="s">
+        <v>455</v>
+      </c>
       <c r="E676" s="2"/>
       <c r="F676" s="2"/>
       <c r="G676" s="2"/>
@@ -26064,17 +26076,13 @@
       <c r="AB676" s="2"/>
     </row>
     <row r="677" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A677" s="12">
-        <v>178</v>
-      </c>
-      <c r="B677" s="2" t="s">
-        <v>457</v>
-      </c>
+      <c r="A677" s="2"/>
+      <c r="B677" s="2"/>
       <c r="C677" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D677" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E677" s="2"/>
       <c r="F677" s="2"/>
@@ -26108,7 +26116,7 @@
         <v>14</v>
       </c>
       <c r="D678" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E678" s="2"/>
       <c r="F678" s="2"/>
@@ -26138,12 +26146,8 @@
     <row r="679" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
-      <c r="C679" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D679" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="C679" s="2"/>
+      <c r="D679" s="2"/>
       <c r="E679" s="2"/>
       <c r="F679" s="2"/>
       <c r="G679" s="2"/>
@@ -26200,10 +26204,18 @@
       <c r="AB680" s="2"/>
     </row>
     <row r="681" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A681" s="2"/>
-      <c r="B681" s="2"/>
-      <c r="C681" s="2"/>
-      <c r="D681" s="2"/>
+      <c r="A681" s="12">
+        <v>178</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D681" s="9" t="s">
+        <v>459</v>
+      </c>
       <c r="E681" s="2"/>
       <c r="F681" s="2"/>
       <c r="G681" s="2"/>
@@ -26230,16 +26242,14 @@
       <c r="AB681" s="2"/>
     </row>
     <row r="682" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A682" s="12">
-        <v>179</v>
-      </c>
-      <c r="B682" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="A682" s="2"/>
+      <c r="B682" s="2"/>
       <c r="C682" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D682" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D682" s="9" t="s">
+        <v>460</v>
+      </c>
       <c r="E682" s="2"/>
       <c r="F682" s="2"/>
       <c r="G682" s="2"/>
@@ -26268,8 +26278,12 @@
     <row r="683" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
-      <c r="C683" s="2"/>
-      <c r="D683" s="2"/>
+      <c r="C683" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D683" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="E683" s="2"/>
       <c r="F683" s="2"/>
       <c r="G683" s="2"/>
@@ -26326,18 +26340,10 @@
       <c r="AB684" s="2"/>
     </row>
     <row r="685" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A685" s="12">
-        <v>180</v>
-      </c>
-      <c r="B685" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C685" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D685" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="A685" s="2"/>
+      <c r="B685" s="2"/>
+      <c r="C685" s="2"/>
+      <c r="D685" s="2"/>
       <c r="E685" s="2"/>
       <c r="F685" s="2"/>
       <c r="G685" s="2"/>
@@ -26364,9 +26370,15 @@
       <c r="AB685" s="2"/>
     </row>
     <row r="686" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A686" s="2"/>
-      <c r="B686" s="2"/>
-      <c r="C686" s="2"/>
+      <c r="A686" s="12">
+        <v>179</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D686" s="2"/>
       <c r="E686" s="2"/>
       <c r="F686" s="2"/>
@@ -26424,18 +26436,10 @@
       <c r="AB687" s="2"/>
     </row>
     <row r="688" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A688" s="12">
-        <v>181</v>
-      </c>
-      <c r="B688" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C688" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D688" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="A688" s="2"/>
+      <c r="B688" s="2"/>
+      <c r="C688" s="2"/>
+      <c r="D688" s="2"/>
       <c r="E688" s="2"/>
       <c r="F688" s="2"/>
       <c r="G688" s="2"/>
@@ -26462,10 +26466,18 @@
       <c r="AB688" s="2"/>
     </row>
     <row r="689" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A689" s="2"/>
-      <c r="B689" s="2"/>
-      <c r="C689" s="2"/>
-      <c r="D689" s="2"/>
+      <c r="A689" s="12">
+        <v>180</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D689" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E689" s="2"/>
       <c r="F689" s="2"/>
       <c r="G689" s="2"/>
@@ -26522,18 +26534,10 @@
       <c r="AB690" s="2"/>
     </row>
     <row r="691" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A691" s="12">
-        <v>182</v>
-      </c>
-      <c r="B691" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C691" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D691" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="A691" s="2"/>
+      <c r="B691" s="2"/>
+      <c r="C691" s="2"/>
+      <c r="D691" s="2"/>
       <c r="E691" s="2"/>
       <c r="F691" s="2"/>
       <c r="G691" s="2"/>
@@ -26560,13 +26564,17 @@
       <c r="AB691" s="2"/>
     </row>
     <row r="692" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A692" s="2"/>
-      <c r="B692" s="2"/>
+      <c r="A692" s="12">
+        <v>181</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="C692" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D692" s="4" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
@@ -26596,12 +26604,8 @@
     <row r="693" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
-      <c r="C693" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D693" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="C693" s="2"/>
+      <c r="D693" s="2"/>
       <c r="E693" s="2"/>
       <c r="F693" s="2"/>
       <c r="G693" s="2"/>
@@ -26630,12 +26634,8 @@
     <row r="694" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
-      <c r="C694" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D694" s="4" t="s">
-        <v>438</v>
-      </c>
+      <c r="C694" s="2"/>
+      <c r="D694" s="2"/>
       <c r="E694" s="2"/>
       <c r="F694" s="2"/>
       <c r="G694" s="2"/>
@@ -26662,13 +26662,17 @@
       <c r="AB694" s="2"/>
     </row>
     <row r="695" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A695" s="2"/>
-      <c r="B695" s="2"/>
+      <c r="A695" s="12">
+        <v>182</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>462</v>
+      </c>
       <c r="C695" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D695" s="4" t="s">
-        <v>383</v>
+        <v>167</v>
       </c>
       <c r="E695" s="2"/>
       <c r="F695" s="2"/>
@@ -26699,10 +26703,10 @@
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D696" s="9" t="s">
-        <v>462</v>
+        <v>92</v>
+      </c>
+      <c r="D696" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="E696" s="2"/>
       <c r="F696" s="2"/>
@@ -26733,10 +26737,10 @@
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D697" s="9" t="s">
-        <v>463</v>
+        <v>92</v>
+      </c>
+      <c r="D697" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E697" s="2"/>
       <c r="F697" s="2"/>
@@ -26767,10 +26771,10 @@
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D698" s="9" t="s">
-        <v>464</v>
+        <v>92</v>
+      </c>
+      <c r="D698" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="E698" s="2"/>
       <c r="F698" s="2"/>
@@ -26801,10 +26805,10 @@
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D699" s="9" t="s">
-        <v>465</v>
+        <v>70</v>
+      </c>
+      <c r="D699" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="E699" s="2"/>
       <c r="F699" s="2"/>
@@ -26838,7 +26842,7 @@
         <v>14</v>
       </c>
       <c r="D700" s="9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E700" s="2"/>
       <c r="F700" s="2"/>
@@ -26872,7 +26876,7 @@
         <v>14</v>
       </c>
       <c r="D701" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E701" s="2"/>
       <c r="F701" s="2"/>
@@ -26906,7 +26910,7 @@
         <v>14</v>
       </c>
       <c r="D702" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E702" s="2"/>
       <c r="F702" s="2"/>
@@ -26940,7 +26944,7 @@
         <v>14</v>
       </c>
       <c r="D703" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E703" s="2"/>
       <c r="F703" s="2"/>
@@ -26974,7 +26978,7 @@
         <v>14</v>
       </c>
       <c r="D704" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E704" s="2"/>
       <c r="F704" s="2"/>
@@ -27008,7 +27012,7 @@
         <v>14</v>
       </c>
       <c r="D705" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E705" s="2"/>
       <c r="F705" s="2"/>
@@ -27038,8 +27042,12 @@
     <row r="706" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
-      <c r="C706" s="2"/>
-      <c r="D706" s="2"/>
+      <c r="C706" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D706" s="9" t="s">
+        <v>469</v>
+      </c>
       <c r="E706" s="2"/>
       <c r="F706" s="2"/>
       <c r="G706" s="2"/>
@@ -27068,8 +27076,12 @@
     <row r="707" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
-      <c r="C707" s="2"/>
-      <c r="D707" s="2"/>
+      <c r="C707" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D707" s="9" t="s">
+        <v>470</v>
+      </c>
       <c r="E707" s="2"/>
       <c r="F707" s="2"/>
       <c r="G707" s="2"/>
@@ -27096,17 +27108,13 @@
       <c r="AB707" s="2"/>
     </row>
     <row r="708" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A708" s="12">
-        <v>183</v>
-      </c>
-      <c r="B708" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="A708" s="2"/>
+      <c r="B708" s="2"/>
       <c r="C708" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D708" s="4" t="s">
-        <v>438</v>
+        <v>14</v>
+      </c>
+      <c r="D708" s="9" t="s">
+        <v>471</v>
       </c>
       <c r="E708" s="2"/>
       <c r="F708" s="2"/>
@@ -27137,10 +27145,10 @@
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D709" s="4" t="s">
-        <v>383</v>
+        <v>14</v>
+      </c>
+      <c r="D709" s="9" t="s">
+        <v>472</v>
       </c>
       <c r="E709" s="2"/>
       <c r="F709" s="2"/>
@@ -27229,15 +27237,17 @@
     </row>
     <row r="712" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="12">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>472</v>
+        <v>271</v>
       </c>
       <c r="C712" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D712" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="D712" s="4" t="s">
+        <v>439</v>
+      </c>
       <c r="E712" s="2"/>
       <c r="F712" s="2"/>
       <c r="G712" s="2"/>
@@ -27266,8 +27276,12 @@
     <row r="713" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
-      <c r="C713" s="2"/>
-      <c r="D713" s="2"/>
+      <c r="C713" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D713" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="E713" s="2"/>
       <c r="F713" s="2"/>
       <c r="G713" s="2"/>
@@ -27324,18 +27338,10 @@
       <c r="AB714" s="2"/>
     </row>
     <row r="715" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A715" s="12">
-        <v>185</v>
-      </c>
-      <c r="B715" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C715" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D715" s="4" t="s">
-        <v>415</v>
-      </c>
+      <c r="A715" s="2"/>
+      <c r="B715" s="2"/>
+      <c r="C715" s="2"/>
+      <c r="D715" s="2"/>
       <c r="E715" s="2"/>
       <c r="F715" s="2"/>
       <c r="G715" s="2"/>
@@ -27362,14 +27368,16 @@
       <c r="AB715" s="2"/>
     </row>
     <row r="716" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A716" s="2"/>
-      <c r="B716" s="2"/>
+      <c r="A716" s="12">
+        <v>184</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="C716" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D716" s="9" t="s">
-        <v>474</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D716" s="2"/>
       <c r="E716" s="2"/>
       <c r="F716" s="2"/>
       <c r="G716" s="2"/>
@@ -27457,16 +27465,16 @@
     </row>
     <row r="719" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="12">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C719" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D719" s="9" t="s">
-        <v>476</v>
+        <v>92</v>
+      </c>
+      <c r="D719" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="E719" s="2"/>
       <c r="F719" s="2"/>
@@ -27497,10 +27505,10 @@
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D720" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E720" s="2"/>
       <c r="F720" s="2"/>
@@ -27530,12 +27538,8 @@
     <row r="721" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
-      <c r="C721" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D721" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="C721" s="2"/>
+      <c r="D721" s="2"/>
       <c r="E721" s="2"/>
       <c r="F721" s="2"/>
       <c r="G721" s="2"/>
@@ -27592,10 +27596,18 @@
       <c r="AB722" s="2"/>
     </row>
     <row r="723" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A723" s="2"/>
-      <c r="B723" s="2"/>
-      <c r="C723" s="2"/>
-      <c r="D723" s="2"/>
+      <c r="A723" s="12">
+        <v>186</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D723" s="9" t="s">
+        <v>477</v>
+      </c>
       <c r="E723" s="2"/>
       <c r="F723" s="2"/>
       <c r="G723" s="2"/>
@@ -27622,16 +27634,12 @@
       <c r="AB723" s="2"/>
     </row>
     <row r="724" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A724" s="12">
-        <v>187</v>
-      </c>
-      <c r="B724" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="A724" s="2"/>
+      <c r="B724" s="2"/>
       <c r="C724" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D724" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D724" s="9" t="s">
         <v>478</v>
       </c>
       <c r="E724" s="2"/>
@@ -27663,10 +27671,10 @@
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D725" s="9" t="s">
-        <v>479</v>
+        <v>92</v>
+      </c>
+      <c r="D725" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="E725" s="2"/>
       <c r="F725" s="2"/>
@@ -27755,13 +27763,13 @@
     </row>
     <row r="728" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="12">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>480</v>
+        <v>271</v>
       </c>
       <c r="C728" s="2" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D728" s="4" t="s">
         <v>479</v>
@@ -27795,10 +27803,10 @@
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D729" s="4" t="s">
-        <v>177</v>
+        <v>61</v>
+      </c>
+      <c r="D729" s="9" t="s">
+        <v>480</v>
       </c>
       <c r="E729" s="2"/>
       <c r="F729" s="2"/>
@@ -27887,7 +27895,7 @@
     </row>
     <row r="732" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="12">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B732" s="2" t="s">
         <v>481</v>
@@ -27896,7 +27904,7 @@
         <v>62</v>
       </c>
       <c r="D732" s="4" t="s">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="E732" s="2"/>
       <c r="F732" s="2"/>
@@ -27926,8 +27934,12 @@
     <row r="733" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
-      <c r="C733" s="2"/>
-      <c r="D733" s="2"/>
+      <c r="C733" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D733" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="E733" s="2"/>
       <c r="F733" s="2"/>
       <c r="G733" s="2"/>
@@ -27983,19 +27995,11 @@
       <c r="AA734" s="2"/>
       <c r="AB734" s="2"/>
     </row>
-    <row r="735" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A735" s="12">
-        <v>190</v>
-      </c>
-      <c r="B735" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="C735" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D735" s="4" t="s">
-        <v>482</v>
-      </c>
+    <row r="735" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A735" s="2"/>
+      <c r="B735" s="2"/>
+      <c r="C735" s="2"/>
+      <c r="D735" s="2"/>
       <c r="E735" s="2"/>
       <c r="F735" s="2"/>
       <c r="G735" s="2"/>
@@ -28022,13 +28026,17 @@
       <c r="AB735" s="2"/>
     </row>
     <row r="736" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A736" s="2"/>
-      <c r="B736" s="2"/>
+      <c r="A736" s="12">
+        <v>189</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>482</v>
+      </c>
       <c r="C736" s="2" t="s">
-        <v>287</v>
+        <v>63</v>
       </c>
       <c r="D736" s="4" t="s">
-        <v>483</v>
+        <v>181</v>
       </c>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
@@ -28058,12 +28066,8 @@
     <row r="737" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
-      <c r="C737" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D737" s="9" t="s">
-        <v>484</v>
-      </c>
+      <c r="C737" s="2"/>
+      <c r="D737" s="2"/>
       <c r="E737" s="2"/>
       <c r="F737" s="2"/>
       <c r="G737" s="2"/>
@@ -28119,11 +28123,19 @@
       <c r="AA738" s="2"/>
       <c r="AB738" s="2"/>
     </row>
-    <row r="739" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A739" s="2"/>
-      <c r="B739" s="2"/>
-      <c r="C739" s="2"/>
-      <c r="D739" s="2"/>
+    <row r="739" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A739" s="12">
+        <v>190</v>
+      </c>
+      <c r="B739" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D739" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="E739" s="2"/>
       <c r="F739" s="2"/>
       <c r="G739" s="2"/>
@@ -28152,8 +28164,12 @@
     <row r="740" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
-      <c r="C740" s="2"/>
-      <c r="D740" s="2"/>
+      <c r="C740" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D740" s="4" t="s">
+        <v>484</v>
+      </c>
       <c r="E740" s="2"/>
       <c r="F740" s="2"/>
       <c r="G740" s="2"/>
@@ -28180,17 +28196,13 @@
       <c r="AB740" s="2"/>
     </row>
     <row r="741" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A741" s="12">
-        <v>191</v>
-      </c>
-      <c r="B741" s="2" t="s">
+      <c r="A741" s="2"/>
+      <c r="B741" s="2"/>
+      <c r="C741" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D741" s="9" t="s">
         <v>485</v>
-      </c>
-      <c r="C741" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D741" s="4" t="s">
-        <v>486</v>
       </c>
       <c r="E741" s="2"/>
       <c r="F741" s="2"/>
@@ -28278,18 +28290,10 @@
       <c r="AB743" s="2"/>
     </row>
     <row r="744" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A744" s="12">
-        <v>192</v>
-      </c>
-      <c r="B744" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C744" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D744" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="A744" s="2"/>
+      <c r="B744" s="2"/>
+      <c r="C744" s="2"/>
+      <c r="D744" s="2"/>
       <c r="E744" s="2"/>
       <c r="F744" s="2"/>
       <c r="G744" s="2"/>
@@ -28316,10 +28320,18 @@
       <c r="AB744" s="2"/>
     </row>
     <row r="745" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A745" s="2"/>
-      <c r="B745" s="2"/>
-      <c r="C745" s="2"/>
-      <c r="D745" s="2"/>
+      <c r="A745" s="12">
+        <v>191</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D745" s="4" t="s">
+        <v>487</v>
+      </c>
       <c r="E745" s="2"/>
       <c r="F745" s="2"/>
       <c r="G745" s="2"/>
@@ -28376,18 +28388,10 @@
       <c r="AB746" s="2"/>
     </row>
     <row r="747" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A747" s="12">
-        <v>193</v>
-      </c>
-      <c r="B747" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="C747" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D747" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="A747" s="2"/>
+      <c r="B747" s="2"/>
+      <c r="C747" s="2"/>
+      <c r="D747" s="2"/>
       <c r="E747" s="2"/>
       <c r="F747" s="2"/>
       <c r="G747" s="2"/>
@@ -28414,13 +28418,17 @@
       <c r="AB747" s="2"/>
     </row>
     <row r="748" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A748" s="2"/>
-      <c r="B748" s="2"/>
+      <c r="A748" s="12">
+        <v>192</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>534</v>
+      </c>
       <c r="C748" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D748" s="4" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="E748" s="2"/>
       <c r="F748" s="2"/>
@@ -28450,12 +28458,8 @@
     <row r="749" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
-      <c r="C749" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D749" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="C749" s="2"/>
+      <c r="D749" s="2"/>
       <c r="E749" s="2"/>
       <c r="F749" s="2"/>
       <c r="G749" s="2"/>
@@ -28512,10 +28516,18 @@
       <c r="AB750" s="2"/>
     </row>
     <row r="751" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A751" s="2"/>
-      <c r="B751" s="2"/>
-      <c r="C751" s="2"/>
-      <c r="D751" s="2"/>
+      <c r="A751" s="12">
+        <v>193</v>
+      </c>
+      <c r="B751" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D751" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="E751" s="2"/>
       <c r="F751" s="2"/>
       <c r="G751" s="2"/>
@@ -28542,17 +28554,13 @@
       <c r="AB751" s="2"/>
     </row>
     <row r="752" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A752" s="12">
-        <v>194</v>
-      </c>
-      <c r="B752" s="2" t="s">
-        <v>488</v>
-      </c>
+      <c r="A752" s="2"/>
+      <c r="B752" s="2"/>
       <c r="C752" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D752" s="4" t="s">
-        <v>489</v>
+        <v>212</v>
       </c>
       <c r="E752" s="2"/>
       <c r="F752" s="2"/>
@@ -28582,8 +28590,12 @@
     <row r="753" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
-      <c r="C753" s="2"/>
-      <c r="D753" s="2"/>
+      <c r="C753" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D753" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="E753" s="2"/>
       <c r="F753" s="2"/>
       <c r="G753" s="2"/>
@@ -28640,18 +28652,10 @@
       <c r="AB754" s="2"/>
     </row>
     <row r="755" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A755" s="12">
-        <v>195</v>
-      </c>
-      <c r="B755" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C755" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D755" s="4" t="s">
-        <v>179</v>
-      </c>
+      <c r="A755" s="2"/>
+      <c r="B755" s="2"/>
+      <c r="C755" s="2"/>
+      <c r="D755" s="2"/>
       <c r="E755" s="2"/>
       <c r="F755" s="2"/>
       <c r="G755" s="2"/>
@@ -28678,13 +28682,17 @@
       <c r="AB755" s="2"/>
     </row>
     <row r="756" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A756" s="2"/>
-      <c r="B756" s="2"/>
+      <c r="A756" s="12">
+        <v>194</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="C756" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D756" s="4" t="s">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
@@ -28773,16 +28781,16 @@
     </row>
     <row r="759" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="12">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B759" s="2" t="s">
         <v>491</v>
       </c>
       <c r="C759" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D759" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E759" s="2"/>
       <c r="F759" s="2"/>
@@ -28813,10 +28821,10 @@
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D760" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E760" s="2"/>
       <c r="F760" s="2"/>
@@ -28905,16 +28913,16 @@
     </row>
     <row r="763" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="12">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B763" s="2" t="s">
         <v>492</v>
       </c>
       <c r="C763" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D763" s="4" t="s">
-        <v>493</v>
+        <v>180</v>
       </c>
       <c r="E763" s="2"/>
       <c r="F763" s="2"/>
@@ -28944,8 +28952,12 @@
     <row r="764" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
-      <c r="C764" s="2"/>
-      <c r="D764" s="2"/>
+      <c r="C764" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D764" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="E764" s="2"/>
       <c r="F764" s="2"/>
       <c r="G764" s="2"/>
@@ -29002,18 +29014,10 @@
       <c r="AB765" s="2"/>
     </row>
     <row r="766" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A766" s="12">
-        <v>198</v>
-      </c>
-      <c r="B766" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C766" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D766" s="4" t="s">
-        <v>495</v>
-      </c>
+      <c r="A766" s="2"/>
+      <c r="B766" s="2"/>
+      <c r="C766" s="2"/>
+      <c r="D766" s="2"/>
       <c r="E766" s="2"/>
       <c r="F766" s="2"/>
       <c r="G766" s="2"/>
@@ -29040,10 +29044,18 @@
       <c r="AB766" s="2"/>
     </row>
     <row r="767" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A767" s="2"/>
-      <c r="B767" s="2"/>
-      <c r="C767" s="2"/>
-      <c r="D767" s="2"/>
+      <c r="A767" s="12">
+        <v>197</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D767" s="4" t="s">
+        <v>494</v>
+      </c>
       <c r="E767" s="2"/>
       <c r="F767" s="2"/>
       <c r="G767" s="2"/>
@@ -29100,15 +29112,9 @@
       <c r="AB768" s="2"/>
     </row>
     <row r="769" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A769" s="12">
-        <v>199</v>
-      </c>
-      <c r="B769" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C769" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A769" s="2"/>
+      <c r="B769" s="2"/>
+      <c r="C769" s="2"/>
       <c r="D769" s="2"/>
       <c r="E769" s="2"/>
       <c r="F769" s="2"/>
@@ -29136,10 +29142,18 @@
       <c r="AB769" s="2"/>
     </row>
     <row r="770" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A770" s="2"/>
-      <c r="B770" s="2"/>
-      <c r="C770" s="2"/>
-      <c r="D770" s="2"/>
+      <c r="A770" s="12">
+        <v>198</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D770" s="4" t="s">
+        <v>496</v>
+      </c>
       <c r="E770" s="2"/>
       <c r="F770" s="2"/>
       <c r="G770" s="2"/>
@@ -29196,15 +29210,9 @@
       <c r="AB771" s="2"/>
     </row>
     <row r="772" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A772" s="12">
-        <v>200</v>
-      </c>
-      <c r="B772" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C772" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A772" s="2"/>
+      <c r="B772" s="2"/>
+      <c r="C772" s="2"/>
       <c r="D772" s="2"/>
       <c r="E772" s="2"/>
       <c r="F772" s="2"/>
@@ -29232,9 +29240,15 @@
       <c r="AB772" s="2"/>
     </row>
     <row r="773" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A773" s="2"/>
-      <c r="B773" s="2"/>
-      <c r="C773" s="2"/>
+      <c r="A773" s="12">
+        <v>199</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D773" s="2"/>
       <c r="E773" s="2"/>
       <c r="F773" s="2"/>
@@ -29292,18 +29306,10 @@
       <c r="AB774" s="2"/>
     </row>
     <row r="775" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A775" s="12">
-        <v>201</v>
-      </c>
-      <c r="B775" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C775" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D775" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="A775" s="2"/>
+      <c r="B775" s="2"/>
+      <c r="C775" s="2"/>
+      <c r="D775" s="2"/>
       <c r="E775" s="2"/>
       <c r="F775" s="2"/>
       <c r="G775" s="2"/>
@@ -29330,14 +29336,16 @@
       <c r="AB775" s="2"/>
     </row>
     <row r="776" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A776" s="2"/>
-      <c r="B776" s="2"/>
+      <c r="A776" s="12">
+        <v>200</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>498</v>
+      </c>
       <c r="C776" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D776" s="4" t="s">
-        <v>211</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D776" s="2"/>
       <c r="E776" s="2"/>
       <c r="F776" s="2"/>
       <c r="G776" s="2"/>
@@ -29366,12 +29374,8 @@
     <row r="777" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
-      <c r="C777" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D777" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="C777" s="2"/>
+      <c r="D777" s="2"/>
       <c r="E777" s="2"/>
       <c r="F777" s="2"/>
       <c r="G777" s="2"/>
@@ -29400,12 +29404,8 @@
     <row r="778" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
-      <c r="C778" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D778" s="4" t="s">
-        <v>499</v>
-      </c>
+      <c r="C778" s="2"/>
+      <c r="D778" s="2"/>
       <c r="E778" s="2"/>
       <c r="F778" s="2"/>
       <c r="G778" s="2"/>
@@ -29432,13 +29432,17 @@
       <c r="AB778" s="2"/>
     </row>
     <row r="779" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A779" s="2"/>
-      <c r="B779" s="2"/>
+      <c r="A779" s="12">
+        <v>201</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>499</v>
+      </c>
       <c r="C779" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D779" s="4" t="s">
-        <v>500</v>
+        <v>167</v>
       </c>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
@@ -29468,8 +29472,12 @@
     <row r="780" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
-      <c r="C780" s="2"/>
-      <c r="D780" s="2"/>
+      <c r="C780" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D780" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="E780" s="2"/>
       <c r="F780" s="2"/>
       <c r="G780" s="2"/>
@@ -29498,8 +29506,12 @@
     <row r="781" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
-      <c r="C781" s="2"/>
-      <c r="D781" s="2"/>
+      <c r="C781" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D781" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="E781" s="2"/>
       <c r="F781" s="2"/>
       <c r="G781" s="2"/>
@@ -29526,17 +29538,13 @@
       <c r="AB781" s="2"/>
     </row>
     <row r="782" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A782" s="12">
-        <v>202</v>
-      </c>
-      <c r="B782" s="2" t="s">
-        <v>501</v>
-      </c>
+      <c r="A782" s="2"/>
+      <c r="B782" s="2"/>
       <c r="C782" s="2" t="s">
-        <v>436</v>
+        <v>92</v>
       </c>
       <c r="D782" s="4" t="s">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="E782" s="2"/>
       <c r="F782" s="2"/>
@@ -29567,10 +29575,10 @@
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D783" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E783" s="2"/>
       <c r="F783" s="2"/>
@@ -29600,12 +29608,8 @@
     <row r="784" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
-      <c r="C784" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D784" s="9" t="s">
-        <v>500</v>
-      </c>
+      <c r="C784" s="2"/>
+      <c r="D784" s="2"/>
       <c r="E784" s="2"/>
       <c r="F784" s="2"/>
       <c r="G784" s="2"/>
@@ -29634,12 +29638,8 @@
     <row r="785" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
-      <c r="C785" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D785" s="4" t="s">
-        <v>503</v>
-      </c>
+      <c r="C785" s="2"/>
+      <c r="D785" s="2"/>
       <c r="E785" s="2"/>
       <c r="F785" s="2"/>
       <c r="G785" s="2"/>
@@ -29666,10 +29666,18 @@
       <c r="AB785" s="2"/>
     </row>
     <row r="786" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A786" s="2"/>
-      <c r="B786" s="2"/>
-      <c r="C786" s="2"/>
-      <c r="D786" s="2"/>
+      <c r="A786" s="12">
+        <v>202</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D786" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E786" s="2"/>
       <c r="F786" s="2"/>
       <c r="G786" s="2"/>
@@ -29698,8 +29706,12 @@
     <row r="787" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
-      <c r="C787" s="2"/>
-      <c r="D787" s="2"/>
+      <c r="C787" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D787" s="4" t="s">
+        <v>503</v>
+      </c>
       <c r="E787" s="2"/>
       <c r="F787" s="2"/>
       <c r="G787" s="2"/>
@@ -29726,17 +29738,13 @@
       <c r="AB787" s="2"/>
     </row>
     <row r="788" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A788" s="12">
-        <v>203</v>
-      </c>
-      <c r="B788" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="A788" s="2"/>
+      <c r="B788" s="2"/>
       <c r="C788" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D788" s="4" t="s">
-        <v>156</v>
+        <v>84</v>
+      </c>
+      <c r="D788" s="9" t="s">
+        <v>501</v>
       </c>
       <c r="E788" s="2"/>
       <c r="F788" s="2"/>
@@ -29766,8 +29774,12 @@
     <row r="789" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
-      <c r="C789" s="2"/>
-      <c r="D789" s="2"/>
+      <c r="C789" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D789" s="4" t="s">
+        <v>504</v>
+      </c>
       <c r="E789" s="2"/>
       <c r="F789" s="2"/>
       <c r="G789" s="2"/>
@@ -29824,18 +29836,10 @@
       <c r="AB790" s="2"/>
     </row>
     <row r="791" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A791" s="12">
-        <v>204</v>
-      </c>
-      <c r="B791" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C791" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D791" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="A791" s="2"/>
+      <c r="B791" s="2"/>
+      <c r="C791" s="2"/>
+      <c r="D791" s="2"/>
       <c r="E791" s="2"/>
       <c r="F791" s="2"/>
       <c r="G791" s="2"/>
@@ -29862,13 +29866,17 @@
       <c r="AB791" s="2"/>
     </row>
     <row r="792" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A792" s="2"/>
-      <c r="B792" s="2"/>
+      <c r="A792" s="12">
+        <v>203</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="C792" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D792" s="4" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="E792" s="2"/>
       <c r="F792" s="2"/>
@@ -29898,12 +29906,8 @@
     <row r="793" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
-      <c r="C793" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D793" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="C793" s="2"/>
+      <c r="D793" s="2"/>
       <c r="E793" s="2"/>
       <c r="F793" s="2"/>
       <c r="G793" s="2"/>
@@ -29932,12 +29936,8 @@
     <row r="794" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
-      <c r="C794" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D794" s="4" t="s">
-        <v>499</v>
-      </c>
+      <c r="C794" s="2"/>
+      <c r="D794" s="2"/>
       <c r="E794" s="2"/>
       <c r="F794" s="2"/>
       <c r="G794" s="2"/>
@@ -29964,13 +29964,17 @@
       <c r="AB794" s="2"/>
     </row>
     <row r="795" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A795" s="2"/>
-      <c r="B795" s="2"/>
+      <c r="A795" s="12">
+        <v>204</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>505</v>
+      </c>
       <c r="C795" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D795" s="4" t="s">
-        <v>505</v>
+        <v>167</v>
       </c>
       <c r="E795" s="2"/>
       <c r="F795" s="2"/>
@@ -30000,8 +30004,12 @@
     <row r="796" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
-      <c r="C796" s="2"/>
-      <c r="D796" s="2"/>
+      <c r="C796" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D796" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="E796" s="2"/>
       <c r="F796" s="2"/>
       <c r="G796" s="2"/>
@@ -30030,8 +30038,12 @@
     <row r="797" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
-      <c r="C797" s="2"/>
-      <c r="D797" s="2"/>
+      <c r="C797" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D797" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="E797" s="2"/>
       <c r="F797" s="2"/>
       <c r="G797" s="2"/>
@@ -30058,17 +30070,13 @@
       <c r="AB797" s="2"/>
     </row>
     <row r="798" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A798" s="12">
-        <v>205</v>
-      </c>
-      <c r="B798" s="2" t="s">
-        <v>506</v>
-      </c>
+      <c r="A798" s="2"/>
+      <c r="B798" s="2"/>
       <c r="C798" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D798" s="4" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E798" s="2"/>
       <c r="F798" s="2"/>
@@ -30098,8 +30106,12 @@
     <row r="799" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
-      <c r="C799" s="2"/>
-      <c r="D799" s="2"/>
+      <c r="C799" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D799" s="4" t="s">
+        <v>506</v>
+      </c>
       <c r="E799" s="2"/>
       <c r="F799" s="2"/>
       <c r="G799" s="2"/>
@@ -30156,18 +30168,10 @@
       <c r="AB800" s="2"/>
     </row>
     <row r="801" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A801" s="12">
-        <v>206</v>
-      </c>
-      <c r="B801" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C801" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D801" s="4" t="s">
-        <v>509</v>
-      </c>
+      <c r="A801" s="2"/>
+      <c r="B801" s="2"/>
+      <c r="C801" s="2"/>
+      <c r="D801" s="2"/>
       <c r="E801" s="2"/>
       <c r="F801" s="2"/>
       <c r="G801" s="2"/>
@@ -30194,10 +30198,18 @@
       <c r="AB801" s="2"/>
     </row>
     <row r="802" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A802" s="2"/>
-      <c r="B802" s="2"/>
-      <c r="C802" s="2"/>
-      <c r="D802" s="2"/>
+      <c r="A802" s="12">
+        <v>205</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C802" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D802" s="4" t="s">
+        <v>508</v>
+      </c>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
       <c r="G802" s="2"/>
@@ -30254,18 +30266,10 @@
       <c r="AB803" s="2"/>
     </row>
     <row r="804" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A804" s="12">
-        <v>207</v>
-      </c>
-      <c r="B804" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C804" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D804" s="4" t="s">
-        <v>511</v>
-      </c>
+      <c r="A804" s="2"/>
+      <c r="B804" s="2"/>
+      <c r="C804" s="2"/>
+      <c r="D804" s="2"/>
       <c r="E804" s="2"/>
       <c r="F804" s="2"/>
       <c r="G804" s="2"/>
@@ -30292,10 +30296,18 @@
       <c r="AB804" s="2"/>
     </row>
     <row r="805" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A805" s="2"/>
-      <c r="B805" s="2"/>
-      <c r="C805" s="2"/>
-      <c r="D805" s="2"/>
+      <c r="A805" s="12">
+        <v>206</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C805" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D805" s="4" t="s">
+        <v>510</v>
+      </c>
       <c r="E805" s="2"/>
       <c r="F805" s="2"/>
       <c r="G805" s="2"/>
@@ -30352,18 +30364,10 @@
       <c r="AB806" s="2"/>
     </row>
     <row r="807" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A807" s="12">
-        <v>208</v>
-      </c>
-      <c r="B807" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C807" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D807" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="A807" s="2"/>
+      <c r="B807" s="2"/>
+      <c r="C807" s="2"/>
+      <c r="D807" s="2"/>
       <c r="E807" s="2"/>
       <c r="F807" s="2"/>
       <c r="G807" s="2"/>
@@ -30390,10 +30394,18 @@
       <c r="AB807" s="2"/>
     </row>
     <row r="808" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A808" s="2"/>
-      <c r="B808" s="2"/>
-      <c r="C808" s="2"/>
-      <c r="D808" s="2"/>
+      <c r="A808" s="12">
+        <v>207</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C808" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D808" s="4" t="s">
+        <v>512</v>
+      </c>
       <c r="E808" s="2"/>
       <c r="F808" s="2"/>
       <c r="G808" s="2"/>
@@ -30450,18 +30462,10 @@
       <c r="AB809" s="2"/>
     </row>
     <row r="810" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A810" s="12">
-        <v>209</v>
-      </c>
-      <c r="B810" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C810" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D810" s="4" t="s">
-        <v>511</v>
-      </c>
+      <c r="A810" s="2"/>
+      <c r="B810" s="2"/>
+      <c r="C810" s="2"/>
+      <c r="D810" s="2"/>
       <c r="E810" s="2"/>
       <c r="F810" s="2"/>
       <c r="G810" s="2"/>
@@ -30488,10 +30492,18 @@
       <c r="AB810" s="2"/>
     </row>
     <row r="811" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A811" s="2"/>
-      <c r="B811" s="2"/>
-      <c r="C811" s="2"/>
-      <c r="D811" s="2"/>
+      <c r="A811" s="12">
+        <v>208</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C811" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D811" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="E811" s="2"/>
       <c r="F811" s="2"/>
       <c r="G811" s="2"/>
@@ -30548,18 +30560,10 @@
       <c r="AB812" s="2"/>
     </row>
     <row r="813" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A813" s="12">
-        <v>210</v>
-      </c>
-      <c r="B813" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C813" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D813" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="A813" s="2"/>
+      <c r="B813" s="2"/>
+      <c r="C813" s="2"/>
+      <c r="D813" s="2"/>
       <c r="E813" s="2"/>
       <c r="F813" s="2"/>
       <c r="G813" s="2"/>
@@ -30586,13 +30590,17 @@
       <c r="AB813" s="2"/>
     </row>
     <row r="814" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A814" s="2"/>
-      <c r="B814" s="2"/>
+      <c r="A814" s="12">
+        <v>209</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>511</v>
+      </c>
       <c r="C814" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D814" s="9" t="s">
-        <v>514</v>
+        <v>92</v>
+      </c>
+      <c r="D814" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="E814" s="2"/>
       <c r="F814" s="2"/>
@@ -30622,12 +30630,8 @@
     <row r="815" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
-      <c r="C815" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D815" s="9" t="s">
-        <v>505</v>
-      </c>
+      <c r="C815" s="2"/>
+      <c r="D815" s="2"/>
       <c r="E815" s="2"/>
       <c r="F815" s="2"/>
       <c r="G815" s="2"/>
@@ -30656,12 +30660,8 @@
     <row r="816" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
-      <c r="C816" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D816" s="4" t="s">
-        <v>503</v>
-      </c>
+      <c r="C816" s="2"/>
+      <c r="D816" s="2"/>
       <c r="E816" s="2"/>
       <c r="F816" s="2"/>
       <c r="G816" s="2"/>
@@ -30688,10 +30688,18 @@
       <c r="AB816" s="2"/>
     </row>
     <row r="817" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A817" s="2"/>
-      <c r="B817" s="2"/>
-      <c r="C817" s="2"/>
-      <c r="D817" s="2"/>
+      <c r="A817" s="12">
+        <v>210</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C817" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D817" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="E817" s="2"/>
       <c r="F817" s="2"/>
       <c r="G817" s="2"/>
@@ -30720,8 +30728,12 @@
     <row r="818" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
-      <c r="C818" s="2"/>
-      <c r="D818" s="2"/>
+      <c r="C818" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D818" s="9" t="s">
+        <v>515</v>
+      </c>
       <c r="E818" s="2"/>
       <c r="F818" s="2"/>
       <c r="G818" s="2"/>
@@ -30748,17 +30760,13 @@
       <c r="AB818" s="2"/>
     </row>
     <row r="819" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A819" s="12">
-        <v>211</v>
-      </c>
-      <c r="B819" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="A819" s="2"/>
+      <c r="B819" s="2"/>
       <c r="C819" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D819" s="4" t="s">
-        <v>156</v>
+        <v>84</v>
+      </c>
+      <c r="D819" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="E819" s="2"/>
       <c r="F819" s="2"/>
@@ -30788,8 +30796,12 @@
     <row r="820" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
-      <c r="C820" s="2"/>
-      <c r="D820" s="2"/>
+      <c r="C820" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D820" s="4" t="s">
+        <v>504</v>
+      </c>
       <c r="E820" s="2"/>
       <c r="F820" s="2"/>
       <c r="G820" s="2"/>
@@ -30846,18 +30858,10 @@
       <c r="AB821" s="2"/>
     </row>
     <row r="822" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A822" s="12">
-        <v>212</v>
-      </c>
-      <c r="B822" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C822" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D822" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="A822" s="2"/>
+      <c r="B822" s="2"/>
+      <c r="C822" s="2"/>
+      <c r="D822" s="2"/>
       <c r="E822" s="2"/>
       <c r="F822" s="2"/>
       <c r="G822" s="2"/>
@@ -30884,13 +30888,17 @@
       <c r="AB822" s="2"/>
     </row>
     <row r="823" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A823" s="2"/>
-      <c r="B823" s="2"/>
+      <c r="A823" s="12">
+        <v>211</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="C823" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D823" s="4" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="E823" s="2"/>
       <c r="F823" s="2"/>
@@ -30920,12 +30928,8 @@
     <row r="824" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
-      <c r="C824" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D824" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="C824" s="2"/>
+      <c r="D824" s="2"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
       <c r="G824" s="2"/>
@@ -30954,12 +30958,8 @@
     <row r="825" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
-      <c r="C825" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D825" s="4" t="s">
-        <v>206</v>
-      </c>
+      <c r="C825" s="2"/>
+      <c r="D825" s="2"/>
       <c r="E825" s="2"/>
       <c r="F825" s="2"/>
       <c r="G825" s="2"/>
@@ -30986,10 +30986,18 @@
       <c r="AB825" s="2"/>
     </row>
     <row r="826" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A826" s="2"/>
-      <c r="B826" s="2"/>
-      <c r="C826" s="2"/>
-      <c r="D826" s="2"/>
+      <c r="A826" s="12">
+        <v>212</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C826" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D826" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="E826" s="2"/>
       <c r="F826" s="2"/>
       <c r="G826" s="2"/>
@@ -31018,8 +31026,12 @@
     <row r="827" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
-      <c r="C827" s="2"/>
-      <c r="D827" s="2"/>
+      <c r="C827" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D827" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="E827" s="2"/>
       <c r="F827" s="2"/>
       <c r="G827" s="2"/>
@@ -31046,17 +31058,13 @@
       <c r="AB827" s="2"/>
     </row>
     <row r="828" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A828" s="12">
-        <v>213</v>
-      </c>
-      <c r="B828" s="2" t="s">
-        <v>516</v>
-      </c>
+      <c r="A828" s="2"/>
+      <c r="B828" s="2"/>
       <c r="C828" s="2" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="D828" s="4" t="s">
-        <v>517</v>
+        <v>157</v>
       </c>
       <c r="E828" s="2"/>
       <c r="F828" s="2"/>
@@ -31087,10 +31095,10 @@
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D829" s="9" t="s">
-        <v>518</v>
+        <v>92</v>
+      </c>
+      <c r="D829" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="E829" s="2"/>
       <c r="F829" s="2"/>
@@ -31179,16 +31187,16 @@
     </row>
     <row r="832" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="12">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C832" s="2" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D832" s="4" t="s">
-        <v>1</v>
+        <v>518</v>
       </c>
       <c r="E832" s="2"/>
       <c r="F832" s="2"/>
@@ -31218,8 +31226,12 @@
     <row r="833" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
-      <c r="C833" s="2"/>
-      <c r="D833" s="2"/>
+      <c r="C833" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D833" s="9" t="s">
+        <v>519</v>
+      </c>
       <c r="E833" s="2"/>
       <c r="F833" s="2"/>
       <c r="G833" s="2"/>
@@ -31306,10 +31318,18 @@
       <c r="AB835" s="2"/>
     </row>
     <row r="836" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A836" s="2"/>
-      <c r="B836" s="11"/>
-      <c r="C836" s="2"/>
-      <c r="D836" s="2"/>
+      <c r="A836" s="12">
+        <v>214</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C836" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D836" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E836" s="2"/>
       <c r="F836" s="2"/>
       <c r="G836" s="2"/>
@@ -31427,7 +31447,7 @@
     </row>
     <row r="840" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="2"/>
-      <c r="B840" s="2"/>
+      <c r="B840" s="11"/>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
       <c r="E840" s="2"/>
@@ -38985,11 +39005,128 @@
       <c r="AA1091" s="2"/>
       <c r="AB1091" s="2"/>
     </row>
+    <row r="1092" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1092" s="2"/>
+      <c r="B1092" s="2"/>
+      <c r="C1092" s="2"/>
+      <c r="D1092" s="2"/>
+      <c r="E1092" s="2"/>
+      <c r="F1092" s="2"/>
+      <c r="G1092" s="2"/>
+      <c r="H1092" s="2"/>
+      <c r="I1092" s="2"/>
+      <c r="J1092" s="2"/>
+      <c r="K1092" s="2"/>
+      <c r="L1092" s="2"/>
+      <c r="M1092" s="2"/>
+      <c r="N1092" s="2"/>
+      <c r="O1092" s="2"/>
+      <c r="P1092" s="2"/>
+      <c r="Q1092" s="2"/>
+      <c r="R1092" s="2"/>
+      <c r="S1092" s="2"/>
+      <c r="T1092" s="2"/>
+      <c r="U1092" s="2"/>
+      <c r="V1092" s="2"/>
+      <c r="W1092" s="2"/>
+      <c r="X1092" s="2"/>
+      <c r="Y1092" s="2"/>
+      <c r="Z1092" s="2"/>
+      <c r="AA1092" s="2"/>
+      <c r="AB1092" s="2"/>
+    </row>
+    <row r="1093" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1093" s="2"/>
+      <c r="B1093" s="2"/>
+      <c r="C1093" s="2"/>
+      <c r="D1093" s="2"/>
+      <c r="E1093" s="2"/>
+      <c r="F1093" s="2"/>
+      <c r="G1093" s="2"/>
+      <c r="H1093" s="2"/>
+      <c r="I1093" s="2"/>
+      <c r="J1093" s="2"/>
+      <c r="K1093" s="2"/>
+      <c r="L1093" s="2"/>
+      <c r="M1093" s="2"/>
+      <c r="N1093" s="2"/>
+      <c r="O1093" s="2"/>
+      <c r="P1093" s="2"/>
+      <c r="Q1093" s="2"/>
+      <c r="R1093" s="2"/>
+      <c r="S1093" s="2"/>
+      <c r="T1093" s="2"/>
+      <c r="U1093" s="2"/>
+      <c r="V1093" s="2"/>
+      <c r="W1093" s="2"/>
+      <c r="X1093" s="2"/>
+      <c r="Y1093" s="2"/>
+      <c r="Z1093" s="2"/>
+      <c r="AA1093" s="2"/>
+      <c r="AB1093" s="2"/>
+    </row>
+    <row r="1094" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1094" s="2"/>
+      <c r="B1094" s="2"/>
+      <c r="C1094" s="2"/>
+      <c r="D1094" s="2"/>
+      <c r="E1094" s="2"/>
+      <c r="F1094" s="2"/>
+      <c r="G1094" s="2"/>
+      <c r="H1094" s="2"/>
+      <c r="I1094" s="2"/>
+      <c r="J1094" s="2"/>
+      <c r="K1094" s="2"/>
+      <c r="L1094" s="2"/>
+      <c r="M1094" s="2"/>
+      <c r="N1094" s="2"/>
+      <c r="O1094" s="2"/>
+      <c r="P1094" s="2"/>
+      <c r="Q1094" s="2"/>
+      <c r="R1094" s="2"/>
+      <c r="S1094" s="2"/>
+      <c r="T1094" s="2"/>
+      <c r="U1094" s="2"/>
+      <c r="V1094" s="2"/>
+      <c r="W1094" s="2"/>
+      <c r="X1094" s="2"/>
+      <c r="Y1094" s="2"/>
+      <c r="Z1094" s="2"/>
+      <c r="AA1094" s="2"/>
+      <c r="AB1094" s="2"/>
+    </row>
+    <row r="1095" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1095" s="2"/>
+      <c r="B1095" s="2"/>
+      <c r="C1095" s="2"/>
+      <c r="D1095" s="2"/>
+      <c r="E1095" s="2"/>
+      <c r="F1095" s="2"/>
+      <c r="G1095" s="2"/>
+      <c r="H1095" s="2"/>
+      <c r="I1095" s="2"/>
+      <c r="J1095" s="2"/>
+      <c r="K1095" s="2"/>
+      <c r="L1095" s="2"/>
+      <c r="M1095" s="2"/>
+      <c r="N1095" s="2"/>
+      <c r="O1095" s="2"/>
+      <c r="P1095" s="2"/>
+      <c r="Q1095" s="2"/>
+      <c r="R1095" s="2"/>
+      <c r="S1095" s="2"/>
+      <c r="T1095" s="2"/>
+      <c r="U1095" s="2"/>
+      <c r="V1095" s="2"/>
+      <c r="W1095" s="2"/>
+      <c r="X1095" s="2"/>
+      <c r="Y1095" s="2"/>
+      <c r="Z1095" s="2"/>
+      <c r="AA1095" s="2"/>
+      <c r="AB1095" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
     <mergeCell ref="F2:J8"/>
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="F10:J10"/>
@@ -38997,6 +39134,9 @@
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
